--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,231 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>965500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>917600</v>
+      </c>
+      <c r="F8" s="3">
         <v>976600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1163500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1050700</v>
       </c>
-      <c r="G8" s="3">
-        <v>1248900</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>961100</v>
+      </c>
+      <c r="J8" s="3">
         <v>1044100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1148700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>967000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1182100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1141500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1352000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1082100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>748400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>726500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>671700</v>
+      </c>
+      <c r="F9" s="3">
         <v>692500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>826000</v>
       </c>
-      <c r="F9" s="3">
-        <v>766800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>935100</v>
-      </c>
       <c r="H9" s="3">
+        <v>772700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>730200</v>
+      </c>
+      <c r="J9" s="3">
         <v>765700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>875000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>722100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>906200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>822200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>989000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>785000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>518400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>245900</v>
+      </c>
+      <c r="F10" s="3">
         <v>284100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>337500</v>
       </c>
-      <c r="F10" s="3">
-        <v>283900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>313800</v>
-      </c>
       <c r="H10" s="3">
+        <v>278000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>230900</v>
+      </c>
+      <c r="J10" s="3">
         <v>278400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>273700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>244900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>275900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>319300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>363000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>297100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>230000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +903,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E12" s="3">
         <v>29700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="G12" s="3">
         <v>33500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>28700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>32500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>37800</v>
+      </c>
+      <c r="N12" s="3">
         <v>35500</v>
       </c>
-      <c r="H12" s="3">
-        <v>29400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>32500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>29800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>37800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>35500</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>36500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>34500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>26800</v>
       </c>
       <c r="P12" s="3">
         <v>34500</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>26800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,52 +999,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F14" s="3">
         <v>302000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
-        <v>24600</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>36700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>53600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>8300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>862300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>841800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1151000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>936600</v>
       </c>
-      <c r="G17" s="3">
-        <v>1185000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>891400</v>
+      </c>
+      <c r="J17" s="3">
         <v>951000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1055600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>872500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1160500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1027300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1180900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>978700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>721900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-174400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>162700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>114100</v>
       </c>
-      <c r="G18" s="3">
-        <v>63900</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>69700</v>
+      </c>
+      <c r="J18" s="3">
         <v>93100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>93100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>94500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>21600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>114200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>171100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>103400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>26500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-89400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>115300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-135400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>191100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>154500</v>
       </c>
-      <c r="G21" s="3">
-        <v>131200</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>137200</v>
+      </c>
+      <c r="J21" s="3">
         <v>130700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>114600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>123800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-40200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>150700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>212000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>128500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>43000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F22" s="3">
         <v>19100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>20700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>19700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>17900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>13200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>13400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>13700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>13900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>61500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-189600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>143800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>95000</v>
       </c>
-      <c r="G23" s="3">
-        <v>49200</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>55200</v>
+      </c>
+      <c r="J23" s="3">
         <v>81900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>84500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>89100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-81200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>109000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>166500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>98400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F24" s="3">
         <v>43300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>31700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>18800</v>
       </c>
-      <c r="G24" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>6700</v>
-      </c>
       <c r="I24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>17500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>18600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-36100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>47100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>24200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-232900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>112100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>76200</v>
       </c>
-      <c r="G26" s="3">
-        <v>29100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>75200</v>
-      </c>
       <c r="I26" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K26" s="3">
         <v>67000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>70500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-45100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>79000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>119400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>16000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-232900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>112100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>76200</v>
       </c>
-      <c r="G27" s="3">
-        <v>29100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>75200</v>
-      </c>
       <c r="I27" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K27" s="3">
         <v>67000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>70500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-45100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>79000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>119400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>74200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,52 +1686,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F29" s="3">
         <v>-6400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-34600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-112500</v>
       </c>
-      <c r="G29" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-5200</v>
-      </c>
       <c r="I29" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K29" s="3">
         <v>12000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>2400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-112700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-9300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>1700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>89400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-239300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>77500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-36300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>43400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>70000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>79000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>72900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-157800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>79000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>119400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>64900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>17700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-239300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>77500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-36300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>43400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>70000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>79000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>72900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-157800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>79000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>119400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>64900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>17700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,52 +2135,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>502900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>320300</v>
+      </c>
+      <c r="F41" s="3">
         <v>366200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>656100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>161500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>294400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>302400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>435900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>284000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>448800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>391100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>437200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>273300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>422400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2026,16 +2205,16 @@
         <v>800</v>
       </c>
       <c r="H42" s="3">
+        <v>800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>800</v>
+      </c>
+      <c r="J42" s="3">
         <v>9500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>9400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>800</v>
       </c>
       <c r="L42" s="3">
         <v>800</v>
@@ -2044,324 +2223,372 @@
         <v>800</v>
       </c>
       <c r="N42" s="3">
+        <v>800</v>
+      </c>
+      <c r="O42" s="3">
+        <v>800</v>
+      </c>
+      <c r="P42" s="3">
         <v>700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>35800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>465400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>331800</v>
+      </c>
+      <c r="F43" s="3">
         <v>414700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>484500</v>
       </c>
-      <c r="F43" s="3">
-        <v>683700</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>499200</v>
+      </c>
+      <c r="I43" s="3">
         <v>351800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>392500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>412400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>617500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>485300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>476400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>524600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>529500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>411500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>840100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>824500</v>
+      </c>
+      <c r="F44" s="3">
         <v>810200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>801800</v>
       </c>
-      <c r="F44" s="3">
-        <v>991100</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>817300</v>
+      </c>
+      <c r="I44" s="3">
         <v>774000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>724600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>641300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>829700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>827700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>848600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>769300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>817600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>699000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F45" s="3">
         <v>101700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>68200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100700</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>459000</v>
+      </c>
+      <c r="I45" s="3">
         <v>459100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>437200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>392000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>130700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>152900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>59800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>45900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>49900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>119800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1869800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1525800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1693600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2011400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1937800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1880100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1866200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1891000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1862700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1846700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1776700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1777800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1671000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1688500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>29500</v>
+      </c>
+      <c r="F47" s="3">
         <v>27800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>32700</v>
       </c>
-      <c r="F47" s="3">
-        <v>38500</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>35500</v>
+      </c>
+      <c r="I47" s="3">
         <v>32600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>26400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>30000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>29500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>25100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>21700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>26600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>20700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>892900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>879600</v>
+      </c>
+      <c r="F48" s="3">
         <v>846100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>827400</v>
       </c>
-      <c r="F48" s="3">
-        <v>910400</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>783000</v>
+      </c>
+      <c r="I48" s="3">
         <v>694500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>615900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>595000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>673100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>706000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>706400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>682200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>653000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>569000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>989000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>998500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1005000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1010100</v>
       </c>
-      <c r="F49" s="3">
-        <v>1270800</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
+        <v>959900</v>
+      </c>
+      <c r="I49" s="3">
         <v>963100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>976300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>236100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>571600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>574400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>591800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>579300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>579300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>573900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>131000</v>
+      </c>
+      <c r="F52" s="3">
         <v>81900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>159200</v>
       </c>
-      <c r="F52" s="3">
-        <v>172300</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>680700</v>
+      </c>
+      <c r="I52" s="3">
         <v>721200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>790900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>879400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>267700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>292300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>302600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>321900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>344000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>432600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3904600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3564400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3654400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4040800</v>
       </c>
-      <c r="F54" s="3">
-        <v>4329800</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>4334900</v>
+      </c>
+      <c r="I54" s="3">
         <v>4291500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4222000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3436700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3404600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3358200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3399200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3383700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3273900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3284700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>366800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>393500</v>
+      </c>
+      <c r="F57" s="3">
         <v>347600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>412900</v>
       </c>
-      <c r="F57" s="3">
-        <v>473300</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>420600</v>
+      </c>
+      <c r="I57" s="3">
         <v>458200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>415200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>374600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>419700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>420500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>397300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>393800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>406800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>378200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>425700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F58" s="3">
         <v>48500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>40300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>40900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>41300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>338800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>493700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>509600</v>
+      </c>
+      <c r="F59" s="3">
         <v>507900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>562500</v>
       </c>
-      <c r="F59" s="3">
-        <v>691500</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>767400</v>
+      </c>
+      <c r="I59" s="3">
         <v>757100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>730600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>735900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>651600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>665200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>578600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>586200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>543300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>581100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1286200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>944400</v>
+      </c>
+      <c r="F60" s="3">
         <v>904000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1015700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1205700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1256600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1484600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1115200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1076400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1035100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>980100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>985800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>956500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>964900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1083000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1240100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1245600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1179500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>891000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>429000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>428900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>431800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>437600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>438200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>435400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>433800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>245700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>251100</v>
+      </c>
+      <c r="F62" s="3">
         <v>249200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>247700</v>
       </c>
-      <c r="F62" s="3">
-        <v>351600</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>356700</v>
+      </c>
+      <c r="I62" s="3">
         <v>272800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>288300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>391500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>418500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>596000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>411400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>411900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>408400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>448400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2600900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2263500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2236200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2503500</v>
       </c>
-      <c r="F66" s="3">
-        <v>2802900</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>2808000</v>
+      </c>
+      <c r="I66" s="3">
         <v>2708900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2663900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1935700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1923800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1875300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1829100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1835900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1844600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1981100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1931300</v>
+      </c>
+      <c r="F72" s="3">
         <v>1883500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2140500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2081100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2135700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2110500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2056900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1994400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1966800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2100200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2035900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1931100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1881000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1303700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1418200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1537300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1526900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1582600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1558100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1501000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1480800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1482900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1570100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1547800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1473600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1440100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-239300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>77500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-36300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>43400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>70000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>79000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>72900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-157800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>79000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>119400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>64900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>17700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F83" s="3">
         <v>35100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>26600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>39800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>44800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>42200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>34800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>27600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>28000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>26900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>217900</v>
+      </c>
+      <c r="F89" s="3">
         <v>77000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>218700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-79400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>103000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>33100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>268000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-67100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>145500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>83300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>258100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-86600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>145400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-43200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-47100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-88100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-80100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-31600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-47200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-35900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-45500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-51300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-117400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-102600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-31600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>374000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-91900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-76600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-934600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-54100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-57000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-58300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-41300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-22300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-106600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-17700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-18100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-18300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-18200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-16500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-16500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-14600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-14600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-14800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-14700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>325200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-211600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-330700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-96700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>38200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-33500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>768200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-54200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-75600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-54900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-43200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-45800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>182600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-289900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>497100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-132800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-133400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>151900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-164800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>56400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-46100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>163400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-149100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-14800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +662,244 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>987800</v>
+      </c>
+      <c r="E8" s="3">
         <v>965500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>917600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>976600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1163500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1050700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>961100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1044100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1148700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>967000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1182100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1141500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1352000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1082100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>748400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>731800</v>
+      </c>
+      <c r="E9" s="3">
         <v>726500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>671700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>692500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>826000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>772700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>730200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>765700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>875000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>722100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>906200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>822200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>989000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>785000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>518400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E10" s="3">
         <v>239000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>245900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>284100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>337500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>278000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>230900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>278400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>273700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>244900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>275900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>319300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>363000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>297100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>230000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E12" s="3">
         <v>28900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>29700</v>
       </c>
       <c r="F12" s="3">
         <v>29700</v>
       </c>
       <c r="G12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="H12" s="3">
         <v>33500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>35500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>26800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,58 +1022,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>302000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>880800</v>
+      </c>
+      <c r="E17" s="3">
         <v>862300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>841800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1151000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>936600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>891400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>951000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1055600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>872500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1160500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1027300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1180900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>978700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>721900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E18" s="3">
         <v>103200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>75800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-174400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>162700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>114100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>69700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>93100</v>
       </c>
       <c r="K18" s="3">
         <v>93100</v>
       </c>
       <c r="L18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="M18" s="3">
         <v>94500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>171100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,258 +1275,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-89400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>141400</v>
+        <v>144500</v>
       </c>
       <c r="E21" s="3">
+        <v>141000</v>
+      </c>
+      <c r="F21" s="3">
         <v>115300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-135400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>191100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>154500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>137200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>130700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>114600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>123800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-40200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>212000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>128500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>17100</v>
+        <v>18700</v>
       </c>
       <c r="E22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F22" s="3">
         <v>16600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E23" s="3">
         <v>89100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>61500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-189600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>143800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>95000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>81900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-81200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>109000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>166500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E24" s="3">
         <v>18400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-36100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E26" s="3">
         <v>70700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-232900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>112100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>85900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>70500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-45100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>119400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E27" s="3">
         <v>70700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>75000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-232900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>112100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>85900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>70500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-45100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>119400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,58 +1750,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-7900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-6400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-34600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-112500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-15900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>12000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-112700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3000</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>89400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E33" s="3">
         <v>69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>67100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-239300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>70000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>79000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-157800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>119400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>64900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E35" s="3">
         <v>69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>67100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-239300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>70000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>79000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-157800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>119400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>64900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>541500</v>
+      </c>
+      <c r="E41" s="3">
         <v>502900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>320300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>366200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>656100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>294400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>302400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>435900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>284000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>448800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>391100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>437200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>273300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>422400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2211,13 +2301,13 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
+        <v>800</v>
+      </c>
+      <c r="K42" s="3">
         <v>9500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9400</v>
-      </c>
-      <c r="L42" s="3">
-        <v>800</v>
       </c>
       <c r="M42" s="3">
         <v>800</v>
@@ -2229,366 +2319,390 @@
         <v>800</v>
       </c>
       <c r="P42" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>35800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>452600</v>
+      </c>
+      <c r="E43" s="3">
         <v>465400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>331800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>414700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>484500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>499200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>351800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>392500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>412400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>617500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>485300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>476400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>524600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>529500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>411500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>676900</v>
+      </c>
+      <c r="E44" s="3">
         <v>840100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>824500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>810200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>801800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>817300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>774000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>724600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>641300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>829700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>827700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>848600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>769300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>817600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>699000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E45" s="3">
         <v>60600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>101700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>68200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>459000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>459100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>437200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>392000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>130700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>152900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>119800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1714100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1869800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1525800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1693600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2011400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1937800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1880100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1866200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1891000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1862700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1846700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1776700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1777800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1671000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1688500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E47" s="3">
         <v>31300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>35500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>897300</v>
+      </c>
+      <c r="E48" s="3">
         <v>892900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>879600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>846100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>827400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>783000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>694500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>615900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>595000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>673100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>706000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>706400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>682200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>653000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>569000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>982500</v>
+      </c>
+      <c r="E49" s="3">
         <v>989000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>998500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1005000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1010100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>959900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>963100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>976300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>236100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>571600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>574400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>591800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>579300</v>
       </c>
       <c r="P49" s="3">
         <v>579300</v>
       </c>
       <c r="Q49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="R49" s="3">
         <v>573900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E52" s="3">
         <v>121600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>131000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>81900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>159200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>680700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>721200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>790900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>879400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>267700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>292300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>302600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>321900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>344000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>432600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3739100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3904600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3564400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3654400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4040800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4334900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4291500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4222000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3436700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3404600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3358200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3399200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3383700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3273900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3284700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E57" s="3">
         <v>366800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>393500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>347600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>412900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>420600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>458200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>415200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>374600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>419700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>420500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>397300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>393800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>406800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>378200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E58" s="3">
         <v>425700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>40300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>338800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E59" s="3">
         <v>493700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>509600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>507900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>562500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>767400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>757100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>730600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>735900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>651600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>665200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>578600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>586200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>543300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>581100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1054600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1286200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>944400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>904000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1015700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1205700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1256600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1484600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1115200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1076400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1035100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>980100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>985800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>956500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>964900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1060400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1069000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1068000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1083000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1240100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1245600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1179500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>891000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>429000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>428900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>431800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>437600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>438200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>435400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>433800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>259700</v>
+      </c>
+      <c r="E62" s="3">
         <v>245700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>251100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>249200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>247700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>356700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>272800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>288300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>391500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>418500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>596000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>411400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>411900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>408400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>448400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2374700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2263500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2236200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2503500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2808000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2708900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2663900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1935700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1923800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1875300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1829100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1835900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1844600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2032800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1981100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1931300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1883500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2140500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2081100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2135700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2110500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2056900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1994400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1966800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2100200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2035900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1931100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1881000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1364400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1303700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1418200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1537300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1526900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1582600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1558100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1501000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1480800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1482900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1570100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1547800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1473600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1440100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E81" s="3">
         <v>69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>67100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-239300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>70000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>79000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-157800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>119400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>64900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E83" s="3">
         <v>35200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>28000</v>
       </c>
       <c r="O83" s="3">
         <v>28000</v>
       </c>
       <c r="P83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>27200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-79100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>217900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>77000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>218700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-79400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>103000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>268000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-67100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>145500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>83300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>258100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-86600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>145400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-43200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-88100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-80100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-51300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-117400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-102600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-59100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>374000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-76600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-934600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-106600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,58 +4845,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-18100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-16500</v>
       </c>
       <c r="K96" s="3">
         <v>-16500</v>
       </c>
       <c r="L96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="M96" s="3">
         <v>-16600</v>
       </c>
       <c r="N96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="O96" s="3">
         <v>-14600</v>
       </c>
       <c r="P96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5055,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E100" s="3">
         <v>325200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-211600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-330700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-96700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>38200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>768200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-54200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-75600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5500</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E102" s="3">
         <v>182600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-289900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>497100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-132800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-133400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>151900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-164800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>163400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-149100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,244 +662,257 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1233100</v>
+      </c>
+      <c r="E8" s="3">
         <v>987800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>965500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>917600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>976600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1163500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1050700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>961100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1044100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1148700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>967000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1182100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1141500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1352000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1082100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>748400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>856200</v>
+      </c>
+      <c r="E9" s="3">
         <v>731800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>726500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>671700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>692500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>826000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>772700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>730200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>765700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>875000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>722100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>906200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>822200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>989000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>785000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>518400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>376900</v>
+      </c>
+      <c r="E10" s="3">
         <v>256000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>239000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>245900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>284100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>337500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>278000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>230900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>278400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>273700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>244900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>275900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>319300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>363000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>297100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>230000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E12" s="3">
         <v>27700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>29700</v>
       </c>
       <c r="G12" s="3">
         <v>29700</v>
       </c>
       <c r="H12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I12" s="3">
         <v>33500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>35500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>34500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,61 +1042,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>302000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>53600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1040700</v>
+      </c>
+      <c r="E17" s="3">
         <v>880800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>862300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>841800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1151000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>936600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>891400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>951000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1055600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>872500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1160500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1027300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1180900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>978700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>721900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E18" s="3">
         <v>107000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>75800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-174400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>162700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>114100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>69700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>93100</v>
       </c>
       <c r="L18" s="3">
         <v>93100</v>
       </c>
       <c r="M18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="N18" s="3">
         <v>94500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>114200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>171100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,273 +1309,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-89400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E21" s="3">
         <v>144500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-135400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>191100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>154500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>137200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>130700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>114600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>123800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-40200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>212000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>128500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E22" s="3">
         <v>18700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E23" s="3">
         <v>88800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-189600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>143800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>95000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>81900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>84500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-81200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>166500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E24" s="3">
         <v>17600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-13500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-36100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E26" s="3">
         <v>71200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>70700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>75000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-232900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>112100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>85900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>70500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-45100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>119400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E27" s="3">
         <v>71200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>70700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>75000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-232900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>112100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>70500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-45100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>119400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1753,61 +1811,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-7900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-6400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-34600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-112500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-15900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>12000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-112700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-9300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>89400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E33" s="3">
         <v>70700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>67100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-239300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>77500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>70000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>79000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>72900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-157800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>119400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>64900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E35" s="3">
         <v>70700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>67100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-239300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>77500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>70000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>79000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>72900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-157800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>119400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>64900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>650400</v>
+      </c>
+      <c r="E41" s="3">
         <v>541500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>502900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>320300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>366200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>656100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>161500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>294400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>302400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>435900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>284000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>448800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>391100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>437200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>273300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>422400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2304,13 +2394,13 @@
         <v>800</v>
       </c>
       <c r="K42" s="3">
+        <v>800</v>
+      </c>
+      <c r="L42" s="3">
         <v>9500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9400</v>
-      </c>
-      <c r="M42" s="3">
-        <v>800</v>
       </c>
       <c r="N42" s="3">
         <v>800</v>
@@ -2322,387 +2412,411 @@
         <v>800</v>
       </c>
       <c r="Q42" s="3">
+        <v>800</v>
+      </c>
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>35800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>398800</v>
+      </c>
+      <c r="E43" s="3">
         <v>452600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>465400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>331800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>414700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>484500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>499200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>351800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>392500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>412400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>617500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>485300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>476400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>524600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>529500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>411500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>589400</v>
+      </c>
+      <c r="E44" s="3">
         <v>676900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>840100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>824500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>810200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>801800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>817300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>774000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>724600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>641300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>829700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>827700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>848600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>769300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>817600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>699000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E45" s="3">
         <v>42300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>101700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>68200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>459000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>459100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>437200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>392000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>130700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>119800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1681200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1714100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1869800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1525800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1693600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2011400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1937800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1880100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1866200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1891000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1862700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1846700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1776700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1777800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1671000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1688500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E47" s="3">
         <v>29400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>35500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>901100</v>
+      </c>
+      <c r="E48" s="3">
         <v>897300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>892900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>879600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>846100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>827400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>783000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>694500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>615900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>595000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>673100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>706000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>706400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>682200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>653000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>569000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>975900</v>
+      </c>
+      <c r="E49" s="3">
         <v>982500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>989000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>998500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1005000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1010100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>959900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>963100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>976300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>236100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>571600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>574400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>591800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>579300</v>
       </c>
       <c r="Q49" s="3">
         <v>579300</v>
       </c>
       <c r="R49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="S49" s="3">
         <v>573900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E52" s="3">
         <v>115800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>121600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>131000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>81900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>159200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>680700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>721200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>790900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>879400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>267700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>292300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>302600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>321900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>344000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>432600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3690800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3739100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3904600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3564400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3654400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4040800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4334900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4291500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4222000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3436700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3404600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3358200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3399200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3383700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3273900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3284700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>392900</v>
+      </c>
+      <c r="E57" s="3">
         <v>328300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>366800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>393500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>347600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>412900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>420600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>458200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>415200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>374600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>419700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>420500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>397300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>393800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>406800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>378200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E58" s="3">
         <v>225300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>425700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>40300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>40900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>338800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>508300</v>
+      </c>
+      <c r="E59" s="3">
         <v>501000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>493700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>509600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>507900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>562500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>767400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>757100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>730600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>735900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>651600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>665200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>578600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>586200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>543300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>581100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>949600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1054600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1286200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>944400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>904000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1015700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1205700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1256600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1484600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1115200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1076400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1035100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>980100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>985800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>956500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>964900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1013200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1060400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1069000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1068000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1083000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1240100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1245600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1179500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>891000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>429000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>428900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>431800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>437600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>438200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>435400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>433800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E62" s="3">
         <v>259700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>245700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>251100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>249200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>247700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>356700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>272800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>288300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>391500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>418500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>596000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>411400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>411900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>408400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>448400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2232600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2374700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2263500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2236200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2503500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2808000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2708900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2663900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1935700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1923800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1875300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1829100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1835900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1844600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2151700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2032800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1981100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1931300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1883500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2140500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2081100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2135700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2110500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2056900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1994400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1966800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2100200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2035900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1931100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1881000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1458200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1364400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1303700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1418200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1537300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1526900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1582600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1558100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1501000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1480800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1482900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1570100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1547800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1473600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1440100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E81" s="3">
         <v>70700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>67100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-239300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>77500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>70000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>79000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>72900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-157800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>119400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>64900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E83" s="3">
         <v>37000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>28000</v>
       </c>
       <c r="P83" s="3">
         <v>28000</v>
       </c>
       <c r="Q83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R83" s="3">
         <v>27200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>424300</v>
+      </c>
+      <c r="E89" s="3">
         <v>295700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-79100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>217900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>77000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>218700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-79400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>103000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>268000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-67100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>145500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>83300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>258100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-86600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>145400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-88100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-80100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-51300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-117400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-102600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>374000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-76600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-934600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-106600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4855,52 +5089,55 @@
         <v>-19000</v>
       </c>
       <c r="E96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-19200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-17700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-18100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-16500</v>
       </c>
       <c r="L96" s="3">
         <v>-16500</v>
       </c>
       <c r="M96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="N96" s="3">
         <v>-16600</v>
       </c>
       <c r="O96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="P96" s="3">
         <v>-14600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-14800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5058,163 +5301,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-288100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-228000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>325200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-211600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-330700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-96700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>38200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>768200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-54200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-75600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E102" s="3">
         <v>38600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>182600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-289900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>497100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-132800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-133400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>151900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-164800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>163400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-149100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,257 +662,269 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1161100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1233100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>987800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>965500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>917600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>976600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1163500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1050700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>961100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1044100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1148700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>967000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1182100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1141500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1352000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1082100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>748400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>824800</v>
+      </c>
+      <c r="E9" s="3">
         <v>856200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>731800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>726500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>671700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>692500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>826000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>772700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>730200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>765700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>875000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>722100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>906200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>822200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>989000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>785000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>518400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>336300</v>
+      </c>
+      <c r="E10" s="3">
         <v>376900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>256000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>239000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>245900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>284100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>337500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>278000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>278400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>273700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>244900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>275900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>319300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>363000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>297100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>230000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +945,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E12" s="3">
         <v>31200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>29700</v>
       </c>
       <c r="H12" s="3">
         <v>29700</v>
       </c>
       <c r="I12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J12" s="3">
         <v>33500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>37800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>34500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>26800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,64 +1061,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>302000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>36700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,8 +1179,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1024600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1040700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>880800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>862300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>841800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1151000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>936600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>891400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>951000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1055600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>872500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1160500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1027300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1180900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>978700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>721900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E18" s="3">
         <v>192400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-174400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>162700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>114100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>93100</v>
       </c>
       <c r="M18" s="3">
         <v>93100</v>
       </c>
       <c r="N18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="O18" s="3">
         <v>94500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>114200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>171100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,288 +1342,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-89400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E21" s="3">
         <v>230400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>144500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>141000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-135400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>191100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>154500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>137200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>130700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>114600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>123800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-40200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>150700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>212000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>128500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>43000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E22" s="3">
         <v>16400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E23" s="3">
         <v>175700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>89100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-189600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>143800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>95000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>81900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>84500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-81200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>109000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>166500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E24" s="3">
         <v>38900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-13500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-36100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>47100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1646,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E26" s="3">
         <v>136800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>70700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>75000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-232900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>112100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>85900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>70500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-45100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>79000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>119400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E27" s="3">
         <v>136800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>70700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>75000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-232900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>112100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>70500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-45100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>119400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>74200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1814,64 +1871,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E29" s="3">
         <v>1100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-7900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-6400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-34600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-112500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-15900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>12000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-112700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-9300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1982,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>89400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E33" s="3">
         <v>137900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>70700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-239300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>70000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>72900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-157800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>119400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>64900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2150,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E35" s="3">
         <v>137900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>70700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-239300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>70000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>72900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-157800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>119400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>64900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2311,69 +2396,73 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>519600</v>
+      </c>
+      <c r="E41" s="3">
         <v>650400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>541500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>502900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>320300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>366200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>656100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>161500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>294400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>302400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>435900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>284000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>448800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>391100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>437200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>273300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>422400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>800</v>
+        <v>56700</v>
       </c>
       <c r="E42" s="3">
         <v>800</v>
@@ -2397,13 +2486,13 @@
         <v>800</v>
       </c>
       <c r="L42" s="3">
+        <v>800</v>
+      </c>
+      <c r="M42" s="3">
         <v>9500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9400</v>
-      </c>
-      <c r="N42" s="3">
-        <v>800</v>
       </c>
       <c r="O42" s="3">
         <v>800</v>
@@ -2415,408 +2504,432 @@
         <v>800</v>
       </c>
       <c r="R42" s="3">
+        <v>800</v>
+      </c>
+      <c r="S42" s="3">
         <v>700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>35800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>337600</v>
+      </c>
+      <c r="E43" s="3">
         <v>398800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>452600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>465400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>331800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>414700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>484500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>499200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>351800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>392500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>412400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>617500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>485300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>476400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>524600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>529500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>411500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>711800</v>
+      </c>
+      <c r="E44" s="3">
         <v>589400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>676900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>840100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>824500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>810200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>801800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>817300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>774000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>724600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>641300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>829700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>827700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>848600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>769300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>817600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>699000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E45" s="3">
         <v>41800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>60600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>101700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>68200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>459000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>459100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>437200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>392000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>130700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>152900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>119800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1670500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1681200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1714100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1869800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1525800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1693600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2011400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1937800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1880100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1866200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1891000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1862700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1846700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1776700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1777800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1671000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1688500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E47" s="3">
         <v>25500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>29400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>35500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>946600</v>
+      </c>
+      <c r="E48" s="3">
         <v>901100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>897300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>892900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>879600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>846100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>827400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>783000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>694500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>615900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>595000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>673100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>706000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>706400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>682200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>653000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>569000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>970000</v>
+      </c>
+      <c r="E49" s="3">
         <v>975900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>982500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>989000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>998500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1005000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1010100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>959900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>963100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>976300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>236100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>571600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>574400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>591800</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>579300</v>
       </c>
       <c r="R49" s="3">
         <v>579300</v>
       </c>
       <c r="S49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="T49" s="3">
         <v>573900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2927,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E52" s="3">
         <v>107100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>115800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>121600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>131000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>159200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>680700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>721200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>790900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>879400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>267700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>292300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>302600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>321900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>344000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>432600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3039,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3770600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3690800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3739100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3904600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3564400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3654400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4040800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4334900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4291500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4222000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3436700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3404600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3358200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3399200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3383700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3273900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3284700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3117,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3139,344 +3268,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>457600</v>
+      </c>
+      <c r="E57" s="3">
         <v>392900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>328300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>366800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>393500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>347600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>412900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>420600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>458200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>415200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>374600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>419700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>420500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>397300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>393800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>406800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>378200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E58" s="3">
         <v>48400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>225300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>425700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>40300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>40900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>338800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E59" s="3">
         <v>508300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>501000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>493700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>509600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>507900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>562500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>767400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>757100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>730600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>735900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>651600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>665200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>578600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>586200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>543300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>581100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1079200</v>
+      </c>
+      <c r="E60" s="3">
         <v>949600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1054600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1286200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>944400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>904000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1015700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1205700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1256600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1484600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1115200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1076400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1035100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>980100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>985800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>956500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>964900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>908300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1013200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1060400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1069000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1068000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1083000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1240100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1245600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1179500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>891000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>429000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>428900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>431800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>437600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>438200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>435400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>433800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>273100</v>
+      </c>
+      <c r="E62" s="3">
         <v>269800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>259700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>245700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>251100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>249200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>247700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>356700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>272800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>288300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>391500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>418500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>596000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>411400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>411900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>408400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>448400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3531,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3587,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3643,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2260600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2232600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2374700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2263500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2236200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2503500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2808000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2708900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2663900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1935700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1923800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1875300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1829100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1835900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1844600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3721,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3777,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3833,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3945,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2225700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2151700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2032800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1981100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1931300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1883500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2140500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2081100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2135700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2110500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2056900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1994400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1966800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2100200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2035900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1931100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1881000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4057,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4113,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4169,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1458200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1364400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1303700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1418200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1537300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1526900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1582600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1558100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1501000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1480800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1482900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1570100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1547800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1473600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1440100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4281,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E81" s="3">
         <v>137900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>70700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-239300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>70000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>72900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-157800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>119400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>64900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4420,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E83" s="3">
         <v>38300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>28000</v>
       </c>
       <c r="Q83" s="3">
         <v>28000</v>
       </c>
       <c r="R83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S83" s="3">
         <v>27200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4532,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4588,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4644,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4700,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4756,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E89" s="3">
         <v>424300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>295700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-79100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>217900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>77000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>218700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-79400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>103000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>268000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-67100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>145500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>83300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>258100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-86600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>145400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4834,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-88100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-80100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-51300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-117400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-102600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4946,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5002,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>374000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-934600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-106600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5080,64 +5312,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-19000</v>
+        <v>-21100</v>
       </c>
       <c r="E96" s="3">
         <v>-19000</v>
       </c>
       <c r="F96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-19200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-17700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-16500</v>
       </c>
       <c r="M96" s="3">
         <v>-16500</v>
       </c>
       <c r="N96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="O96" s="3">
         <v>-16600</v>
       </c>
       <c r="P96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="Q96" s="3">
         <v>-14600</v>
       </c>
       <c r="R96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-14800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5192,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5248,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5304,172 +5546,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-170900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-288100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-228000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>325200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-211600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-330700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-96700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>38200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>768200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-54200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-75600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-54900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-43200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E101" s="3">
         <v>3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="E102" s="3">
         <v>106400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>182600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-289900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>497100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-132800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-133400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>151900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-164800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>163400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-149100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,269 +662,282 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1433200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1161100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1233100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>987800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>965500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>917600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>976600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1163500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1050700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>961100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1044100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1148700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>967000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1182100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1141500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1352000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1082100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>748400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1015900</v>
+      </c>
+      <c r="E9" s="3">
         <v>824800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>856200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>731800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>726500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>671700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>692500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>826000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>772700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>730200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>765700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>875000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>722100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>906200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>822200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>989000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>785000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>518400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E10" s="3">
         <v>336300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>256000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>239000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>245900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>284100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>337500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>278000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>230900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>278400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>273700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>244900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>275900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>319300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>363000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>297100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>230000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,67 +959,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E12" s="3">
         <v>38100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>29700</v>
       </c>
       <c r="I12" s="3">
         <v>29700</v>
       </c>
       <c r="J12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K12" s="3">
         <v>33500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>32500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>26800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,67 +1081,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>302000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>36700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1205,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1201300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1024600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1040700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>880800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>862300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>841800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1151000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>936600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>891400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>951000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1055600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>872500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1160500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1027300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1180900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>978700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>721900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E18" s="3">
         <v>136500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>192400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>107000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-174400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>162700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>114100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>93100</v>
       </c>
       <c r="N18" s="3">
         <v>93100</v>
       </c>
       <c r="O18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="P18" s="3">
         <v>94500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>114200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>171100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>273200</v>
+      </c>
+      <c r="E21" s="3">
         <v>177300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>230400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>144500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>141000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-135400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>191100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>137200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>130700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>114600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>123800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>150700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>212000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>128500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E22" s="3">
         <v>15300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>216800</v>
+      </c>
+      <c r="E23" s="3">
         <v>119100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>175700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>89100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>61500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-189600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>143800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>81900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>84500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-81200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>109000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>166500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E24" s="3">
         <v>23100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-13500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-36100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>47100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E26" s="3">
         <v>96000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>136800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>70700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>75000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-232900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>112100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>85900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>67000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>70500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>79000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>119400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>74200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E27" s="3">
         <v>96000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>136800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>70700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>75000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-232900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>112100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>67000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>119400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>74200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,67 +1932,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-7900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-34600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-112500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-15900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>12000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>2400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-112700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-9300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>89400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E33" s="3">
         <v>95100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>137900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>70700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>69000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>67100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-239300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>77500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>70000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>79000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>119400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>64900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E35" s="3">
         <v>95100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>137900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>70700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>69000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>67100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-239300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>77500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>70000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>79000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>119400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>64900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2397,75 +2483,79 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>471900</v>
+      </c>
+      <c r="E41" s="3">
         <v>519600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>650400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>541500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>502900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>320300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>366200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>656100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>294400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>302400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>435900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>284000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>448800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>391100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>437200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>273300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>422400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E42" s="3">
         <v>56700</v>
-      </c>
-      <c r="E42" s="3">
-        <v>800</v>
       </c>
       <c r="F42" s="3">
         <v>800</v>
@@ -2489,13 +2579,13 @@
         <v>800</v>
       </c>
       <c r="M42" s="3">
+        <v>800</v>
+      </c>
+      <c r="N42" s="3">
         <v>9500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9400</v>
-      </c>
-      <c r="O42" s="3">
-        <v>800</v>
       </c>
       <c r="P42" s="3">
         <v>800</v>
@@ -2507,429 +2597,453 @@
         <v>800</v>
       </c>
       <c r="S42" s="3">
+        <v>800</v>
+      </c>
+      <c r="T42" s="3">
         <v>700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>35800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>539100</v>
+      </c>
+      <c r="E43" s="3">
         <v>337600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>398800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>452600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>465400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>331800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>414700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>484500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>499200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>351800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>392500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>412400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>617500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>485300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>476400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>524600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>529500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>411500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>765600</v>
+      </c>
+      <c r="E44" s="3">
         <v>711800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>589400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>676900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>840100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>824500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>810200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>801800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>817300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>774000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>724600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>641300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>829700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>827700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>848600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>769300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>817600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>699000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E45" s="3">
         <v>44800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>101700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>68200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>459000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>459100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>437200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>392000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>130700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>152900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>119800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1835700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1670500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1681200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1714100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1869800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1525800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1693600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2011400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1937800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1880100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1866200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1891000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1862700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1846700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1776700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1777800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1671000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1688500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E47" s="3">
         <v>32500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>21700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>953100</v>
+      </c>
+      <c r="E48" s="3">
         <v>946600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>901100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>897300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>892900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>879600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>846100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>827400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>783000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>694500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>615900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>595000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>673100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>706000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>706400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>682200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>653000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>569000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>967000</v>
+      </c>
+      <c r="E49" s="3">
         <v>970000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>975900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>982500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>989000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>998500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1005000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1010100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>959900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>963100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>976300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>236100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>571600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>574400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>591800</v>
-      </c>
-      <c r="R49" s="3">
-        <v>579300</v>
       </c>
       <c r="S49" s="3">
         <v>579300</v>
       </c>
       <c r="T49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="U49" s="3">
         <v>573900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3046,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E52" s="3">
         <v>151000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>115800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>121600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>131000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>81900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>159200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>680700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>721200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>790900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>879400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>267700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>292300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>302600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>321900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>344000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>432600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3164,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3943200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3770600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3690800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3739100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3904600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3564400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3654400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4040800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4334900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4291500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4222000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3436700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3404600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3358200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3399200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3383700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3273900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3284700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3269,362 +3399,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>532400</v>
+      </c>
+      <c r="E57" s="3">
         <v>457600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>392900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>328300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>366800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>393500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>347600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>412900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>420600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>458200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>415200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>374600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>419700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>420500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>397300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>393800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>406800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>378200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E58" s="3">
         <v>43100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>48400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>225300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>425700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>40300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>338800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>552800</v>
+      </c>
+      <c r="E59" s="3">
         <v>578500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>508300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>501000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>493700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>509600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>507900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>562500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>767400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>757100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>730600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>735900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>651600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>665200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>578600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>586200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>543300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>581100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1079200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>949600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1054600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1286200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>944400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>904000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1015700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1205700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1256600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1484600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1115200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1076400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1035100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>980100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>985800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>956500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>964900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>900900</v>
+      </c>
+      <c r="E61" s="3">
         <v>908300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1013200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1060400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1069000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1068000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1083000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1240100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1245600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1179500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>891000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>429000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>428900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>431800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>437600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>438200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>435400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>433800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E62" s="3">
         <v>273100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>269800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>259700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>245700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>251100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>249200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>247700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>356700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>272800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>288300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>391500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>418500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>596000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>411400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>411900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>408400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>448400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3800,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2300600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2260600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2232600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2374700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2263500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2236200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2503500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2808000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2708900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2663900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1935700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1923800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1875300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1829100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1835900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1844600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4118,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2374000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2225700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2151700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2032800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1981100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1931300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1883500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2140500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2081100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2135700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2110500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2056900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1994400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1966800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2100200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2035900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1931100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1881000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4354,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1642600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1510000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1458200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1364400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1303700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1418200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1537300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1526900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1582600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1558100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1501000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1480800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1482900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1570100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1547800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1473600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1440100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>169300</v>
+      </c>
+      <c r="E81" s="3">
         <v>95100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>137900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>70700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>69000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>67100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-239300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>77500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>70000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>79000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>119400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>64900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4618,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E83" s="3">
         <v>42900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>38300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>28000</v>
       </c>
       <c r="R83" s="3">
         <v>28000</v>
       </c>
       <c r="S83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T83" s="3">
         <v>27200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E89" s="3">
         <v>157400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>424300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>295700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-79100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>217900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>77000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>218700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-79400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>103000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>268000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-67100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>145500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>83300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>258100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-86600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>145400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5054,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-88100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-80100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-51300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-117400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-102600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-123300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>374000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-91900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-934600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-106600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5313,67 +5546,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-19000</v>
       </c>
       <c r="F96" s="3">
         <v>-19000</v>
       </c>
       <c r="G96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-19200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-17700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-18100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-16500</v>
       </c>
       <c r="N96" s="3">
         <v>-16500</v>
       </c>
       <c r="O96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="P96" s="3">
         <v>-16600</v>
       </c>
       <c r="Q96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="R96" s="3">
         <v>-14600</v>
       </c>
       <c r="S96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-14800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5549,181 +5792,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-170900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-288100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-228000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>325200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-211600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-330700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-96700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>38200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>768200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-54200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-75600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-54900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-43200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-45800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-129200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>106400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>182600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-289900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>497100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-132800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-133400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>151900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-164800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>163400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-149100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,282 +662,294 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1554800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1433200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1161100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1233100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>987800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>965500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>917600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>976600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1163500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1050700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>961100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1044100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1148700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>967000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1182100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1141500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1352000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1082100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>748400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1093300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1015900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>824800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>856200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>731800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>726500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>671700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>692500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>826000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>772700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>730200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>765700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>875000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>722100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>906200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>822200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>989000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>785000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>518400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>461500</v>
+      </c>
+      <c r="E10" s="3">
         <v>417300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>336300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>376900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>256000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>239000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>245900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>284100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>337500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>278000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>230900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>278400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>273700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>244900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>275900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>319300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>363000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>297100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>230000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,70 +972,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E12" s="3">
         <v>34100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>29700</v>
       </c>
       <c r="J12" s="3">
         <v>29700</v>
       </c>
       <c r="K12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="L12" s="3">
         <v>33500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>32500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>34500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>26800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,70 +1100,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>302000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>36700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>53600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1201300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1024600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1040700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>880800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>862300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>841800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1151000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>936600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>891400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>951000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1055600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>872500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1160500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1027300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1180900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>978700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>721900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E18" s="3">
         <v>231900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>136500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>192400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>107000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-174400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>114100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>69700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>93100</v>
       </c>
       <c r="O18" s="3">
         <v>93100</v>
       </c>
       <c r="P18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>94500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>114200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>171100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>103400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,318 +1409,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-89400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E21" s="3">
         <v>273200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>230400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>144500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>141000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-135400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>191100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>154500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>137200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>130700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>114600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>123800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-40200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>212000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>128500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>43000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E22" s="3">
         <v>14800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E23" s="3">
         <v>216800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>175700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>88800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>89100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>61500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-189600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>81900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>84500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-81200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>109000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>166500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E24" s="3">
         <v>47400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-13500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>43300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-36100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>47100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E26" s="3">
         <v>169400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>96000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>71200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>70700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>75000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-232900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>85900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>67000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-45100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>119400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>74200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E27" s="3">
         <v>169400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>96000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>136800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>71200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>70700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>75000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-232900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>67000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-45100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>119400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>74200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1935,70 +1992,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-7900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-34600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-112500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-4800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-15900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>12000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-112700</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-9300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,132 +2187,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>89400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E33" s="3">
         <v>169300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>95100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>137900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>70700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>69000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>67100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-239300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>77500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>70000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>79000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-157800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>119400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>64900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E35" s="3">
         <v>169300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>95100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>137900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>70700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>69000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>67100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-239300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>77500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>70000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>79000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-157800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>119400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>64900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2484,81 +2569,85 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>590200</v>
+      </c>
+      <c r="E41" s="3">
         <v>471900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>519600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>650400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>541500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>502900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>320300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>366200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>656100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>294400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>302400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>435900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>284000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>448800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>391100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>437200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>273300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>422400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>7300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>56700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>800</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
@@ -2582,13 +2671,13 @@
         <v>800</v>
       </c>
       <c r="N42" s="3">
+        <v>800</v>
+      </c>
+      <c r="O42" s="3">
         <v>9500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9400</v>
-      </c>
-      <c r="P42" s="3">
-        <v>800</v>
       </c>
       <c r="Q42" s="3">
         <v>800</v>
@@ -2600,450 +2689,474 @@
         <v>800</v>
       </c>
       <c r="T42" s="3">
+        <v>800</v>
+      </c>
+      <c r="U42" s="3">
         <v>700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>35800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E43" s="3">
         <v>539100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>337600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>398800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>452600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>465400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>331800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>414700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>484500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>499200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>351800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>392500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>412400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>617500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>485300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>476400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>524600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>529500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>411500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>835100</v>
+      </c>
+      <c r="E44" s="3">
         <v>765600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>711800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>589400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>676900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>840100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>824500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>810200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>801800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>817300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>774000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>724600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>641300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>829700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>827700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>848600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>769300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>817600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>699000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E45" s="3">
         <v>51800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>101700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>459000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>459100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>437200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>392000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>130700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>152900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>45900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>49900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>119800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1988000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1835700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1670500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1681200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1714100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1869800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1525800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1693600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2011400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1937800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1880100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1866200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1891000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1862700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1846700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1776700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1777800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1671000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1688500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E47" s="3">
         <v>36300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>32500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>25500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>21700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>997900</v>
+      </c>
+      <c r="E48" s="3">
         <v>953100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>946600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>901100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>897300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>892900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>879600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>846100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>827400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>783000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>694500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>615900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>595000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>673100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>706000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>706400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>682200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>653000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>569000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>970600</v>
+      </c>
+      <c r="E49" s="3">
         <v>967000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>970000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>975900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>982500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>989000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>998500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1005000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1010100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>959900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>963100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>976300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>236100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>571600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>574400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>591800</v>
-      </c>
-      <c r="S49" s="3">
-        <v>579300</v>
       </c>
       <c r="T49" s="3">
         <v>579300</v>
       </c>
       <c r="U49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="V49" s="3">
         <v>573900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3104,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3166,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>140600</v>
+      </c>
+      <c r="E52" s="3">
         <v>151100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>151000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>107100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>115800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>121600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>131000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>81900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>159200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>680700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>721200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>790900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>879400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>267700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>292300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>302600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>321900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>344000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>432600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3290,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4138500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3943200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3770600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3690800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3739100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3904600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3564400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3654400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4040800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4334900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4291500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4222000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3436700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3404600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3358200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3399200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3383700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3273900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3284700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3376,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3400,380 +3529,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>588200</v>
+      </c>
+      <c r="E57" s="3">
         <v>532400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>457600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>392900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>328300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>366800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>393500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>347600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>412900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>420600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>458200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>415200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>374600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>419700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>420500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>397300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>393800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>406800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>378200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E58" s="3">
         <v>43800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>48400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>225300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>425700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>338800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>619600</v>
+      </c>
+      <c r="E59" s="3">
         <v>552800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>578500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>508300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>501000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>493700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>509600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>507900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>562500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>767400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>757100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>730600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>735900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>651600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>665200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>578600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>586200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>543300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>581100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1251300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1129000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1079200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>949600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1054600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1286200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>944400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>904000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1015700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1205700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1256600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1484600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1115200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1076400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1035100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>980100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>985800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>956500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>964900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E61" s="3">
         <v>900900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>908300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1013200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1060400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1069000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1068000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1083000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1240100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1245600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1179500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>891000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>429000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>428900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>431800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>437600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>438200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>435400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>433800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E62" s="3">
         <v>270700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>273100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>269800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>259700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>245700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>251100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>249200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>247700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>356700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>272800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>288300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>391500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>418500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>596000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>411400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>411900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>408400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>448400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3834,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3896,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3958,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2369000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2260600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2232600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2374700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2263500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2236200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2503500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2808000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2708900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2663900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1935700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1923800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1875300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1829100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1835900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1844600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4044,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4106,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4168,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4292,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2527200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2374000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2225700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2151700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2032800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1981100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1931300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1883500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2140500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2081100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2135700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2110500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2056900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1994400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1966800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2100200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2035900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1931100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1881000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4416,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4478,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4540,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1769500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1642600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1510000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1458200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1364400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1303700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1418200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1537300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1526900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1582600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1558100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1501000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1480800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1482900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1570100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1547800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1473600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1440100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4664,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E81" s="3">
         <v>169300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>95100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>137900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>70700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>69000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>67100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-239300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>77500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>70000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>79000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-157800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>119400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>64900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4817,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E83" s="3">
         <v>41600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>38300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>28000</v>
       </c>
       <c r="S83" s="3">
         <v>28000</v>
       </c>
       <c r="T83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U83" s="3">
         <v>27200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4941,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5003,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5065,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5189,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>333100</v>
+      </c>
+      <c r="E89" s="3">
         <v>8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>157400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>424300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>295700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-79100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>217900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>77000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>218700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-79400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>103000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>268000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>145500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>83300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>258100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-86600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>145400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5275,70 +5494,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-88100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-80100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-51300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-117400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-102600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5399,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5461,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E94" s="3">
         <v>1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-123300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>374000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-91900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-934600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-106600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5547,70 +5779,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-19000</v>
       </c>
       <c r="G96" s="3">
         <v>-19000</v>
       </c>
       <c r="H96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-19200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-19300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-17700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-16500</v>
       </c>
       <c r="O96" s="3">
         <v>-16500</v>
       </c>
       <c r="P96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="Q96" s="3">
         <v>-16600</v>
       </c>
       <c r="R96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="S96" s="3">
         <v>-14600</v>
       </c>
       <c r="T96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-14800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5733,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5795,190 +6037,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-170900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-288100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-228000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>325200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-211600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-330700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>38200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>768200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-54200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-75600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-54900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-43200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-129200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>106400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>182600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-45900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-289900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>497100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-132800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-133400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>151900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-164800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>163400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-149100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,294 +662,306 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1427200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1554800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1433200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1161100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1233100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>987800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>965500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>917600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>976600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1163500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1050700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>961100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1044100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1148700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>967000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1182100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1141500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1352000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1082100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>748400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1016800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1093300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1015900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>824800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>856200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>731800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>726500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>671700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>692500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>826000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>772700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>730200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>765700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>875000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>722100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>906200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>822200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>989000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>785000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>518400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>410400</v>
+      </c>
+      <c r="E10" s="3">
         <v>461500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>417300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>336300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>376900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>256000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>239000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>245900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>284100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>337500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>278000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>230900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>278400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>273700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>244900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>275900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>319300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>363000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>297100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>230000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,73 +985,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E12" s="3">
         <v>37500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>29700</v>
       </c>
       <c r="K12" s="3">
         <v>29700</v>
       </c>
       <c r="L12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="M12" s="3">
         <v>33500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>32500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>29800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>37800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>34500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>26800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1103,73 +1119,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>302000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>36700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>53600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1233,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1226400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1304600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1201300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1024600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1040700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>880800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>862300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>841800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1151000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>936600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>891400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>951000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1055600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>872500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1160500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1027300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1180900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>978700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>721900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E18" s="3">
         <v>250200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>231900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>136500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>192400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>107000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-174400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>69700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>93100</v>
       </c>
       <c r="P18" s="3">
         <v>93100</v>
       </c>
       <c r="Q18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="R18" s="3">
         <v>94500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>114200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>171100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>103400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>26500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,333 +1442,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-89400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E21" s="3">
         <v>293000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>273200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>230400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>144500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>141000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>115300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-135400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>191100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>154500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>137200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>130700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>114600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>123800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-40200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>212000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>128500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>43000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E22" s="3">
         <v>15400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E23" s="3">
         <v>234600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>216800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>175700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>88800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>61500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-189600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>84500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-81200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>109000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>166500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>98400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>23300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E24" s="3">
         <v>55200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>47400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-13500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-36100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>47100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1800,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E26" s="3">
         <v>179400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>169400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>96000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>71200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>70700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>75000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-232900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>112100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>85900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-45100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>119400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>74200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E27" s="3">
         <v>179400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>169400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>96000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>136800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>70700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>75000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-232900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>85900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-45100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>79000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>119400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1995,73 +2052,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>1100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-7900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-34600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-112500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-15900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>12000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-112700</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-9300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2125,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2190,138 +2256,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>89400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E33" s="3">
         <v>179400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>169300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>95100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>137900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>70700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>69000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>67100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-239300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>77500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>70000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>79000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>72900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-157800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>79000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>119400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>64900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2385,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E35" s="3">
         <v>179400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>169300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>95100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>137900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>70700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>69000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>67100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-239300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>77500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>70000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>79000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>72900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-157800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>79000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>119400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>64900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2545,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2570,73 +2655,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1486400</v>
+      </c>
+      <c r="E41" s="3">
         <v>590200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>471900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>519600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>650400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>541500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>502900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>320300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>366200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>656100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>294400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>302400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>435900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>284000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>448800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>391100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>437200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>273300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>422400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2644,13 +2733,13 @@
         <v>800</v>
       </c>
       <c r="E42" s="3">
+        <v>800</v>
+      </c>
+      <c r="F42" s="3">
         <v>7300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>56700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>800</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
@@ -2674,13 +2763,13 @@
         <v>800</v>
       </c>
       <c r="O42" s="3">
+        <v>800</v>
+      </c>
+      <c r="P42" s="3">
         <v>9500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9400</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>800</v>
       </c>
       <c r="R42" s="3">
         <v>800</v>
@@ -2692,471 +2781,495 @@
         <v>800</v>
       </c>
       <c r="U42" s="3">
+        <v>800</v>
+      </c>
+      <c r="V42" s="3">
         <v>700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>35800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>451100</v>
+      </c>
+      <c r="E43" s="3">
         <v>503300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>539100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>337600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>398800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>452600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>465400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>331800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>414700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>484500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>499200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>351800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>392500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>412400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>617500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>485300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>476400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>524600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>529500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>411500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>940500</v>
+      </c>
+      <c r="E44" s="3">
         <v>835100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>765600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>711800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>589400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>676900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>840100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>824500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>810200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>801800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>817300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>774000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>724600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>641300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>829700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>827700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>848600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>769300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>817600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>699000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E45" s="3">
         <v>58600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>459000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>459100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>437200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>392000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>130700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>152900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>45900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>49900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>119800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2942000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1988000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1835700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1670500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1681200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1714100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1869800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1525800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1693600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2011400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1937800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1880100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1866200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1891000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1862700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1846700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1776700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1777800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1671000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1688500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E47" s="3">
         <v>41400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>26600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>20700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1044600</v>
+      </c>
+      <c r="E48" s="3">
         <v>997900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>953100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>946600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>901100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>897300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>892900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>879600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>846100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>827400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>783000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>694500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>615900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>595000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>673100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>706000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>706400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>682200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>653000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>569000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>993000</v>
+      </c>
+      <c r="E49" s="3">
         <v>970600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>967000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>970000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>975900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>982500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>989000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>998500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1005000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1010100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>959900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>963100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>976300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>236100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>571600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>574400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>591800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>579300</v>
       </c>
       <c r="U49" s="3">
         <v>579300</v>
       </c>
       <c r="V49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="W49" s="3">
         <v>573900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3220,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3285,73 +3401,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E52" s="3">
         <v>140600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>151100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>151000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>107100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>115800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>121600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>131000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>159200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>680700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>721200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>790900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>879400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>267700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>292300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>302600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>321900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>344000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>432600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3415,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5180600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4138500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3943200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3770600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3690800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3739100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3904600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3564400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3654400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4040800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4334900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4291500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4222000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3436700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3404600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3358200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3399200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3383700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3273900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3284700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3505,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3530,398 +3659,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E57" s="3">
         <v>588200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>532400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>457600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>392900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>328300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>366800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>393500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>347600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>412900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>420600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>458200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>415200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>374600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>419700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>420500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>397300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>393800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>406800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>378200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E58" s="3">
         <v>43500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>225300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>425700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>40300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>40900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>338800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>623300</v>
+      </c>
+      <c r="E59" s="3">
         <v>619600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>552800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>578500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>508300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>501000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>493700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>509600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>507900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>562500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>767400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>757100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>730600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>735900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>651600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>665200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>578600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>586200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>543300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>581100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1256300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1251300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1129000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1079200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>949600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1054600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1286200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>944400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>904000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1015700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1205700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1256600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1484600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1115200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1076400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1035100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>980100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>985800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>956500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>964900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1787700</v>
+      </c>
+      <c r="E61" s="3">
         <v>832000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>908300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1013200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1060400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1069000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1068000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1083000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1240100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1245600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1179500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>891000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>429000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>428900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>431800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>437600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>438200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>435400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>433800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E62" s="3">
         <v>285700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>270700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>273100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>269800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>259700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>245700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>251100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>249200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>247700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>356700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>272800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>288300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>391500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>418500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>596000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>411400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>411900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>408400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>448400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3985,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4050,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4115,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>3330900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2369000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2260600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2232600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2374700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2263500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2236200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2503500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2808000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2708900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2663900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1935700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1923800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1875300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1829100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1835900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1844600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4205,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4270,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4335,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4400,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4465,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2644500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2527200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2374000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2225700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2151700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2032800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1981100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1931300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1883500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2140500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2081100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2135700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2110500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2056900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1994400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1966800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2100200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2035900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1931100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1881000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4595,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4660,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4725,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1849700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1769500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1642600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1510000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1458200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1364400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1303700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1418200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1537300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1526900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1582600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1558100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1501000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1480800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1482900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1570100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1547800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1473600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1440100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4855,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E81" s="3">
         <v>179400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>169300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>95100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>137900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>70700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>69000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>67100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-239300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>77500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>70000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>79000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>72900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-157800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>79000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>119400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>64900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5015,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E83" s="3">
         <v>43000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>28000</v>
       </c>
       <c r="T83" s="3">
         <v>28000</v>
       </c>
       <c r="U83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V83" s="3">
         <v>27200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>26900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5145,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5210,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5275,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5340,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5405,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E89" s="3">
         <v>333100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>157400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>424300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>295700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-79100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>217900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>77000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>218700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-79400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>103000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>268000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-67100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>145500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>83300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>258100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-86600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>145400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5495,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-88100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-80100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-51300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-117400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-102600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5625,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5690,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-77100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-123300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-55800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>374000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-934600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-106600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5780,73 +6012,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-19000</v>
       </c>
       <c r="H96" s="3">
         <v>-19000</v>
       </c>
       <c r="I96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-19200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-16500</v>
       </c>
       <c r="P96" s="3">
         <v>-16500</v>
       </c>
       <c r="Q96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="R96" s="3">
         <v>-16600</v>
       </c>
       <c r="S96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="T96" s="3">
         <v>-14600</v>
       </c>
       <c r="U96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-14800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5910,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5975,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6040,199 +6282,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>880100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-139200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-170900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-288100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-228000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>325200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-211600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-330700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-96700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>38200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>768200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-54200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-75600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-54900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-43200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5500</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>897400</v>
+      </c>
+      <c r="E102" s="3">
         <v>118300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-129200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>106400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>182600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-289900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>497100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-132800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-133400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>151900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-164800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>56400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-46100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>163400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-149100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,306 +662,319 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1431000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1427200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1554800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1433200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1161100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1233100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>987800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>965500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>917600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>976600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1163500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1050700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>961100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1044100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1148700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>967000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1182100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1141500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1352000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1082100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>748400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1054200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1016800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1093300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1015900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>824800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>856200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>731800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>726500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>671700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>692500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>826000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>772700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>730200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>765700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>875000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>722100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>906200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>822200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>989000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>785000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>518400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>376800</v>
+      </c>
+      <c r="E10" s="3">
         <v>410400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>461500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>417300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>336300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>376900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>256000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>239000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>245900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>284100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>337500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>278000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>230900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>278400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>273700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>244900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>275900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>319300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>363000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>297100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>230000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,76 +999,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E12" s="3">
         <v>35500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>29700</v>
       </c>
       <c r="L12" s="3">
         <v>29700</v>
       </c>
       <c r="M12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="N12" s="3">
         <v>33500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>32500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>29800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>37800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>34500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>26800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1122,76 +1139,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>8200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>302000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>36700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>53600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1307,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1309200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1226400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1304600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1201300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1024600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1040700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>880800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>862300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>841800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1151000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>936600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>891400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>951000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1055600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>872500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1160500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1027300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1180900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>978700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>721900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E18" s="3">
         <v>200800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>250200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>231900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>136500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>192400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>103200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-174400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>93100</v>
       </c>
       <c r="Q18" s="3">
         <v>93100</v>
       </c>
       <c r="R18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="S18" s="3">
         <v>94500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>114200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>171100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>103400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1443,348 +1476,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-89400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E21" s="3">
         <v>243600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>293000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>273200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>177300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>230400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>144500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>141000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-135400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>191100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>154500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>137200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>130700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>114600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>123800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-40200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>150700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>212000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>128500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>43000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E22" s="3">
         <v>16900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E23" s="3">
         <v>183400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>234600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>216800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>119100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>175700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>88800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-189600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>143800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>84500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>89100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-81200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>109000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>166500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>98400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>38800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>47400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-36100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>47100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1851,144 +1900,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E26" s="3">
         <v>144600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>179400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>169400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>96000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>70700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>75000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-232900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>112100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>85900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>70500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-45100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>79000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>119400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>74200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E27" s="3">
         <v>144600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>179400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>169400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>96000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>136800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>70700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-232900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>70500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-45100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>79000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>119400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2055,76 +2113,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1500</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-7900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-34600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-112500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>12000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>2400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-112700</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-9300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,144 +2326,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>89400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E33" s="3">
         <v>143100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>169300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>95100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>137900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>70700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-239300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>70000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>79000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>72900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-157800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>79000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>119400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>64900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2463,149 +2539,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E35" s="3">
         <v>143100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>169300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>95100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>137900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>70700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-239300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>70000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>79000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>72900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-157800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>79000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>119400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>64900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2630,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2656,76 +2742,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>354500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1486400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>590200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>471900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>519600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>650400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>541500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>502900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>320300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>366200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>656100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>294400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>302400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>435900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>284000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>448800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>391100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>437200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>273300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>422400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2736,13 +2826,13 @@
         <v>800</v>
       </c>
       <c r="F42" s="3">
+        <v>800</v>
+      </c>
+      <c r="G42" s="3">
         <v>7300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>56700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>800</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
@@ -2766,13 +2856,13 @@
         <v>800</v>
       </c>
       <c r="P42" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q42" s="3">
         <v>9500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9400</v>
-      </c>
-      <c r="R42" s="3">
-        <v>800</v>
       </c>
       <c r="S42" s="3">
         <v>800</v>
@@ -2784,492 +2874,516 @@
         <v>800</v>
       </c>
       <c r="V42" s="3">
+        <v>800</v>
+      </c>
+      <c r="W42" s="3">
         <v>700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>35800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>485300</v>
+      </c>
+      <c r="E43" s="3">
         <v>451100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>503300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>539100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>337600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>398800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>452600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>465400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>331800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>414700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>484500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>499200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>351800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>392500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>412400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>617500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>485300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>476400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>524600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>529500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>411500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1208000</v>
+      </c>
+      <c r="E44" s="3">
         <v>940500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>835100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>765600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>711800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>589400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>676900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>840100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>824500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>810200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>801800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>817300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>774000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>724600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>641300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>829700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>827700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>848600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>769300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>817600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>699000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E45" s="3">
         <v>63200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>459000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>459100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>437200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>392000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>130700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>152900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>59800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>45900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>49900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>119800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2124600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2942000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1988000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1835700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1670500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1681200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1714100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1869800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1525800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1693600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2011400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1937800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1880100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1866200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1891000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1862700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1846700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1776700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1777800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1671000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1688500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E47" s="3">
         <v>41300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>35500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>21700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>26600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>20700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1139700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1044600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>997900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>953100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>946600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>901100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>897300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>892900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>879600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>846100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>827400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>783000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>694500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>615900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>595000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>673100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>706000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>706400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>682200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>653000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>569000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1940500</v>
+      </c>
+      <c r="E49" s="3">
         <v>993000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>970600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>967000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>970000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>975900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>982500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>989000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>998500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1005000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1010100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>959900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>963100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>976300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>236100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>571600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>574400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>591800</v>
-      </c>
-      <c r="U49" s="3">
-        <v>579300</v>
       </c>
       <c r="V49" s="3">
         <v>579300</v>
       </c>
       <c r="W49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="X49" s="3">
         <v>573900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3336,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3404,76 +3521,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E52" s="3">
         <v>159700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>140600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>151100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>151000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>107100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>115800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>121600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>159200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>680700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>721200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>790900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>879400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>267700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>292300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>302600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>321900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>344000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>432600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3540,76 +3663,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5425000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5180600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4138500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3943200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3770600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3690800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3739100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3904600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3564400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3654400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4040800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4334900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4291500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4222000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3436700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3404600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3358200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3399200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3383700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3273900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3284700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3634,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3660,416 +3790,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>693500</v>
+      </c>
+      <c r="E57" s="3">
         <v>589800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>588200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>532400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>457600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>392900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>328300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>366800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>393500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>347600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>412900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>420600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>458200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>415200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>374600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>419700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>420500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>397300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>393800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>406800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>378200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E58" s="3">
         <v>43200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>225300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>425700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>40300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>41300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>338800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>711300</v>
+      </c>
+      <c r="E59" s="3">
         <v>623300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>619600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>552800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>578500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>508300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>501000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>493700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>509600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>507900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>562500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>767400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>757100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>730600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>735900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>651600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>665200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>578600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>586200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>543300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>581100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1442200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1256300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1251300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1129000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1079200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>949600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1054600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1286200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>944400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>904000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1015700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1205700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1256600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1484600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1115200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1076400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1035100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>980100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>985800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>956500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>964900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1779000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1787700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>832000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>908300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1013200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1060400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1069000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1068000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1083000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1240100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1245600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1179500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>891000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>429000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>428900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>431800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>437600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>438200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>435400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>433800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>289600</v>
+      </c>
+      <c r="E62" s="3">
         <v>286900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>285700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>270700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>273100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>269800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>259700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>245700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>251100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>249200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>247700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>356700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>272800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>288300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>391500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>418500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>596000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>411400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>411900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>408400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>448400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4136,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4204,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4272,76 +4427,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>3510800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3330900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2369000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2260600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2232600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2374700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2263500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2236200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2503500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2808000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2708900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2663900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1935700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1923800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1875300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1829100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1835900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1844600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4366,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4434,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4502,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4570,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4638,76 +4809,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2720100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2644500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2527200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2374000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2225700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2151700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2032800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1981100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1931300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1883500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2140500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2081100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2135700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2110500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2056900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1994400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1966800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2100200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2035900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1931100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1881000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4774,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4842,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4910,76 +5093,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1914200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1849700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1769500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1642600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1510000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1458200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1364400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1303700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1418200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1537300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1526900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1582600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1558100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1501000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1480800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1482900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1570100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1547800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1473600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1440100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5046,149 +5235,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E81" s="3">
         <v>143100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>169300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>95100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>137900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>70700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-239300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>70000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>79000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>72900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-157800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>79000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>119400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>64900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5213,76 +5411,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E83" s="3">
         <v>43300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>28000</v>
       </c>
       <c r="U83" s="3">
         <v>28000</v>
       </c>
       <c r="V83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W83" s="3">
         <v>27200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>26900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5349,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5417,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5485,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5553,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5621,76 +5835,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E89" s="3">
         <v>123200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>333100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>157400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>424300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>295700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-79100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>217900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>77000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>218700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-79400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>103000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>268000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-67100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>145500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>83300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>258100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-86600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>145400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5715,76 +5935,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-88100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-80100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-51300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-117400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-102600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5851,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5919,76 +6146,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1175800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-123300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>374000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-934600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-22300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-106600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6013,76 +6246,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-26200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-19000</v>
       </c>
       <c r="I96" s="3">
         <v>-19000</v>
       </c>
       <c r="J96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-17700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-16500</v>
       </c>
       <c r="Q96" s="3">
         <v>-16500</v>
       </c>
       <c r="R96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="S96" s="3">
         <v>-16600</v>
       </c>
       <c r="T96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="U96" s="3">
         <v>-14600</v>
       </c>
       <c r="V96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-14800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-14700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6149,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6217,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6285,208 +6528,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="E100" s="3">
         <v>880100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-139200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-170900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-288100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-228000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>325200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-211600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-330700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-96700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>38200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>768200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-54200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-75600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-54900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-43200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-45800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5500</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1130600</v>
+      </c>
+      <c r="E102" s="3">
         <v>897400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>118300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-129200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>106400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>182600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-289900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>497100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-132800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-133400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>151900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-164800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>56400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-46100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>163400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-149100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,319 +662,332 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1695700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1431000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1427200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1554800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1433200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1161100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1233100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>987800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>965500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>917600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>976600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1163500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1050700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>961100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1044100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1148700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>967000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1182100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1141500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1352000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1082100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>748400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1212100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1054200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1016800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1093300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1015900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>824800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>856200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>731800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>726500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>671700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>692500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>826000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>772700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>730200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>765700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>875000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>722100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>906200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>822200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>989000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>785000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>518400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>483600</v>
+      </c>
+      <c r="E10" s="3">
         <v>376800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>410400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>461500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>417300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>336300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>376900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>256000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>239000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>245900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>284100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>337500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>278000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>230900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>278400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>273700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>244900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>275900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>319300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>363000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>297100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>230000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,79 +1013,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E12" s="3">
         <v>47400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>29700</v>
       </c>
       <c r="M12" s="3">
         <v>29700</v>
       </c>
       <c r="N12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="O12" s="3">
         <v>33500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>29400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>32500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>29800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>37800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>35500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>36500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>34500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>26800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1159,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1151,70 +1171,73 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>8200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>302000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>36700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>53600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1284,8 +1307,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1308,150 +1334,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1456300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1309200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1226400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1304600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1201300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1024600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1040700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>880800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>862300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>841800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1151000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>936600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>891400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>951000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1055600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>872500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1160500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1027300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1180900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>978700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>721900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E18" s="3">
         <v>121800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>250200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>231900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>136500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>192400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-174400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>114100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>93100</v>
       </c>
       <c r="R18" s="3">
         <v>93100</v>
       </c>
       <c r="S18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="T18" s="3">
         <v>94500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>114200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>171100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>103400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1477,363 +1510,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-89400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>292400</v>
+      </c>
+      <c r="E21" s="3">
         <v>170600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>243600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>293000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>273200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>177300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>230400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>144500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>141000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-135400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>191100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>154500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>137200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>130700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>114600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>123800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-40200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>150700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>212000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>128500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>43000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E22" s="3">
         <v>18800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>220400</v>
+      </c>
+      <c r="E23" s="3">
         <v>101600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>183400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>234600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>216800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>119100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>175700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>88800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-189600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>143800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>81900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>84500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>89100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-81200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>109000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>166500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>98400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>23300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>47400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-36100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>47100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1903,150 +1952,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E26" s="3">
         <v>102000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>144600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>179400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>169400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>96000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>70700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>75000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-232900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>67000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>70500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-45100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>79000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>119400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>74200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>16000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E27" s="3">
         <v>102000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>144600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>179400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>169400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>96000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>136800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>71200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>70700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-232900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>67000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>70500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-45100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>79000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>119400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>74200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2116,79 +2174,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1500</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>1100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-7900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-34600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-112500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-15900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>12000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-112700</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-9300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2258,8 +2322,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,150 +2396,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>89400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E33" s="3">
         <v>101500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>143100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>169300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>95100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>137900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>70700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-239300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>77500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-36300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>70000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>79000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-157800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>79000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>119400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>64900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2542,155 +2618,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E35" s="3">
         <v>101500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>143100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>169300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>95100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>137900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>70700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-239300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>77500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-36300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>70000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>79000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-157800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>79000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>119400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>64900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2716,8 +2801,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2743,84 +2829,88 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>680100</v>
+      </c>
+      <c r="E41" s="3">
         <v>354500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1486400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>590200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>471900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>519600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>650400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>541500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>502900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>320300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>366200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>656100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>294400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>302400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>435900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>284000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>448800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>391100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>437200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>273300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>422400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>800</v>
+        <v>6800</v>
       </c>
       <c r="E42" s="3">
         <v>800</v>
@@ -2829,13 +2919,13 @@
         <v>800</v>
       </c>
       <c r="G42" s="3">
+        <v>800</v>
+      </c>
+      <c r="H42" s="3">
         <v>7300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>56700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -2859,13 +2949,13 @@
         <v>800</v>
       </c>
       <c r="Q42" s="3">
+        <v>800</v>
+      </c>
+      <c r="R42" s="3">
         <v>9500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9400</v>
-      </c>
-      <c r="S42" s="3">
-        <v>800</v>
       </c>
       <c r="T42" s="3">
         <v>800</v>
@@ -2877,513 +2967,537 @@
         <v>800</v>
       </c>
       <c r="W42" s="3">
+        <v>800</v>
+      </c>
+      <c r="X42" s="3">
         <v>700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>35800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>664700</v>
+      </c>
+      <c r="E43" s="3">
         <v>485300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>451100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>503300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>539100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>337600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>398800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>452600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>465400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>331800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>414700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>484500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>499200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>351800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>392500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>412400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>617500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>485300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>476400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>524600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>529500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>411500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1345700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1208000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>940500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>835100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>765600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>711800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>589400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>676900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>840100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>824500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>810200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>801800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>817300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>774000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>724600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>641300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>829700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>827700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>848600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>769300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>817600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>699000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>93900</v>
+      </c>
+      <c r="E45" s="3">
         <v>76000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>63200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>51800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>459000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>459100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>437200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>392000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>130700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>152900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>49900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>119800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2791200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2124600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2942000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1988000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1835700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1670500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1681200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1714100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1869800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1525800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1693600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2011400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1937800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1880100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1866200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1891000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1862700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1846700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1776700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1777800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1671000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1688500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E47" s="3">
         <v>43800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>35500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>30000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>21700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>26600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>20700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1170500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1139700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1044600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>997900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>953100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>946600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>901100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>897300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>892900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>879600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>846100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>827400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>783000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>694500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>615900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>595000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>673100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>706000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>706400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>682200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>653000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>569000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1927800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1940500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>993000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>970600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>967000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>970000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>975900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>982500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>989000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>998500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1005000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1010100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>959900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>963100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>976300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>236100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>571600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>574400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>591800</v>
-      </c>
-      <c r="V49" s="3">
-        <v>579300</v>
       </c>
       <c r="W49" s="3">
         <v>579300</v>
       </c>
       <c r="X49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="Y49" s="3">
         <v>573900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3453,8 +3567,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3524,79 +3641,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E52" s="3">
         <v>176400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>159700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>140600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>151100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>151000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>115800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>159200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>680700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>721200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>790900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>879400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>267700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>292300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>302600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>321900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>344000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>432600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3666,79 +3789,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6093000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5425000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5180600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4138500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3943200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3770600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3690800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3739100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3904600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3564400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3654400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4040800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4334900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4291500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4222000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3436700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3404600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3358200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3399200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3383700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3273900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3284700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3764,8 +3893,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3791,434 +3921,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E57" s="3">
         <v>693500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>589800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>588200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>532400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>457600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>392900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>328300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>366800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>393500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>347600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>412900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>420600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>458200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>415200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>374600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>419700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>420500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>397300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>393800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>406800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>378200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>37400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>43200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>225300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>425700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>338800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>665900</v>
+      </c>
+      <c r="E59" s="3">
         <v>711300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>623300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>619600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>552800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>578500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>508300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>501000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>493700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>509600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>507900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>562500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>767400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>757100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>730600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>735900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>651600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>665200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>578600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>586200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>543300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>581100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1328200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1442200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1256300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1251300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1129000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1079200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>949600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1054600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1286200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>944400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>904000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1015700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1205700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1256600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1484600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1115200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1076400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1035100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>980100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>985800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>956500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>964900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2498200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1779000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1787700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>832000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>900900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>908300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1013200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1060400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1069000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1068000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1083000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1240100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1245600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1179500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>891000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>429000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>428900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>431800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>437600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>438200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>435400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>433800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E62" s="3">
         <v>289600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>286900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>285700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>270700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>273100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>269800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>259700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>245700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>251100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>249200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>247700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>356700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>272800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>288300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>391500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>418500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>596000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>411400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>411900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>408400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>448400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4288,8 +4437,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4359,8 +4511,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4430,79 +4585,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4113100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3510800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3330900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2369000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2260600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2232600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2374700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2263500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2236200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2503500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2808000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2708900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2663900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1935700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1923800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1875300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1829100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1835900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1844600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4528,8 +4689,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4599,8 +4761,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4670,8 +4835,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4741,8 +4909,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4812,79 +4983,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>2866300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2720100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2644500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2527200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2374000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2225700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2151700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2032800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1981100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1931300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1883500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2140500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2081100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2135700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2110500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2056900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1994400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1966800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2100200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2035900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1931100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1881000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4954,8 +5131,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5025,8 +5205,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5096,79 +5279,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1979900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1914200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1849700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1769500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1642600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1510000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1458200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1364400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1303700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1418200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1537300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1526900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1582600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1558100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1501000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1480800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1482900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1570100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1547800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1473600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1440100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5238,155 +5427,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E81" s="3">
         <v>101500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>143100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>169300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>95100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>137900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>70700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-239300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>77500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-36300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>70000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>79000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-157800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>79000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>119400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>64900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5412,79 +5610,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E83" s="3">
         <v>50200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>28000</v>
       </c>
       <c r="V83" s="3">
         <v>28000</v>
       </c>
       <c r="W83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X83" s="3">
         <v>27200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>26900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5554,8 +5756,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5625,8 +5830,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5696,8 +5904,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5767,8 +5978,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5838,79 +6052,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="E89" s="3">
         <v>109400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>123200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>333100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>157400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>424300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>295700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-79100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>217900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>77000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>218700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-79400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>103000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>268000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-67100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>145500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>83300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>258100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-86600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>145400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5936,79 +6156,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-86900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-69900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-80100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-51300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-117400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-102600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6078,8 +6302,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6149,79 +6376,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-123300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>374000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-91900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-934600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-106600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6247,79 +6480,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-26200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-19000</v>
       </c>
       <c r="J96" s="3">
         <v>-19000</v>
       </c>
       <c r="K96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-19200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-17700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-16500</v>
       </c>
       <c r="R96" s="3">
         <v>-16500</v>
       </c>
       <c r="S96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="T96" s="3">
         <v>-16600</v>
       </c>
       <c r="U96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="V96" s="3">
         <v>-14600</v>
       </c>
       <c r="W96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="X96" s="3">
         <v>-14800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6389,8 +6626,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6460,8 +6700,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6531,217 +6774,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>559100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>880100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-139200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-170900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-288100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-228000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>325200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-211600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-330700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-96700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>38200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>768200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-54200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-75600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-54900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-43200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-45800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>325600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>897400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>118300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-129200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>106400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>182600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-289900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>497100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-132800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-133400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>151900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-164800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>56400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-46100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>163400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-149100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,332 +662,344 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1835600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1695700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1431000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1427200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1554800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1433200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1161100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1233100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>987800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>965500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>917600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>976600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1163500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1050700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>961100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1044100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1148700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>967000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1182100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1141500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1352000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1082100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>748400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1299200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1212100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1054200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1016800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1093300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1015900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>824800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>856200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>731800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>726500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>671700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>692500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>826000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>772700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>730200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>765700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>875000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>722100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>906200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>822200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>989000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>785000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>518400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>536400</v>
+      </c>
+      <c r="E10" s="3">
         <v>483600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>410400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>461500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>417300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>336300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>376900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>256000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>239000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>245900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>284100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>337500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>278000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>230900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>278400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>273700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>244900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>275900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>319300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>363000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>297100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>230000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,82 +1026,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E12" s="3">
         <v>51400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>47400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>38100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>29700</v>
       </c>
       <c r="N12" s="3">
         <v>29700</v>
       </c>
       <c r="O12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="P12" s="3">
         <v>33500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>29800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>29400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>32500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>29800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>37800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>35500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>36500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>34500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>26800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1162,82 +1178,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>8200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>302000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>36700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>53600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1310,8 +1332,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1335,156 +1360,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1556600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1456300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1309200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1226400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1304600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1201300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1024600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1040700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>880800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>862300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>841800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1151000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>936600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>891400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>951000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1055600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>872500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1160500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1027300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1180900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>978700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>721900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E18" s="3">
         <v>239400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>121800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>250200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>231900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>136500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>192400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-174400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>114100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>69700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>93100</v>
       </c>
       <c r="S18" s="3">
         <v>93100</v>
       </c>
       <c r="T18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="U18" s="3">
         <v>94500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>114200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>171100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>103400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>26500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,378 +1543,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-89400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E21" s="3">
         <v>292400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>170600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>243600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>293000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>273200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>177300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>230400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>115300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-135400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>191100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>154500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>137200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>130700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>114600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>123800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-40200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>150700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>212000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>128500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>43000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E22" s="3">
         <v>18400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>254600</v>
+      </c>
+      <c r="E23" s="3">
         <v>220400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>183400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>234600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>216800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>119100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>175700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-189600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>143800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>81900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>84500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-81200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>109000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>166500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>98400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>23300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E24" s="3">
         <v>46400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>47400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-36100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>30000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>47100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1955,156 +2003,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E26" s="3">
         <v>174000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>102000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>144600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>179400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>169400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>96000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>70700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>75000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-232900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>76200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>67000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>70500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-45100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>119400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>74200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>16000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E27" s="3">
         <v>174000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>102000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>144600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>179400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>169400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>96000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>136800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>71200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>70700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-232900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>76200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>67000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>70500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-45100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>79000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>119400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>74200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2177,82 +2234,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-34600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-112500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-15900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>12000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>2400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-112700</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2325,8 +2388,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2399,156 +2465,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>89400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E33" s="3">
         <v>174200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>143100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>179400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>169300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>95100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>137900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>70700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-239300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>77500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>70000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>79000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-157800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>79000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>119400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>64900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2621,161 +2696,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E35" s="3">
         <v>174200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>101500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>143100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>179400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>169300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>95100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>137900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>70700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-239300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>77500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>70000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>79000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-157800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>79000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>119400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>64900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2802,8 +2886,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2830,90 +2915,94 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>566700</v>
+      </c>
+      <c r="E41" s="3">
         <v>680100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>354500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1486400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>590200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>471900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>519600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>650400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>541500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>502900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>320300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>366200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>656100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>161500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>294400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>302400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>435900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>284000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>448800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>391100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>437200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>273300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>422400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6800</v>
-      </c>
-      <c r="E42" s="3">
-        <v>800</v>
       </c>
       <c r="F42" s="3">
         <v>800</v>
@@ -2922,13 +3011,13 @@
         <v>800</v>
       </c>
       <c r="H42" s="3">
+        <v>800</v>
+      </c>
+      <c r="I42" s="3">
         <v>7300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>56700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>800</v>
       </c>
       <c r="K42" s="3">
         <v>800</v>
@@ -2952,13 +3041,13 @@
         <v>800</v>
       </c>
       <c r="R42" s="3">
+        <v>800</v>
+      </c>
+      <c r="S42" s="3">
         <v>9500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9400</v>
-      </c>
-      <c r="T42" s="3">
-        <v>800</v>
       </c>
       <c r="U42" s="3">
         <v>800</v>
@@ -2970,534 +3059,558 @@
         <v>800</v>
       </c>
       <c r="X42" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y42" s="3">
         <v>700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>35800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E43" s="3">
         <v>664700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>485300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>451100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>503300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>539100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>337600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>398800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>452600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>465400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>331800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>414700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>484500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>499200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>351800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>392500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>412400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>617500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>485300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>476400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>524600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>529500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>411500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1372400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1345700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1208000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>940500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>835100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>765600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>711800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>589400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>676900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>840100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>824500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>810200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>801800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>817300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>774000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>724600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>641300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>829700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>827700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>848600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>769300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>817600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>699000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E45" s="3">
         <v>93900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>76000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>63200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>68200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>459000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>459100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>437200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>392000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>130700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>152900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>49900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>119800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2685400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2791200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2124600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2942000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1988000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1835700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1670500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1681200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1714100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1869800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1525800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1693600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2011400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1937800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1880100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1866200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1891000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1862700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1846700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1776700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1777800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1671000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1688500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E47" s="3">
         <v>48100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>32700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>35500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>30000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>29500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>25100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>21700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>26600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>20700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1267400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1170500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1139700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1044600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>997900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>953100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>946600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>901100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>897300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>892900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>879600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>846100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>827400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>783000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>694500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>615900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>595000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>673100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>706000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>706400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>682200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>653000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>569000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2004900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1927800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1940500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>993000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>970600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>967000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>970000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>975900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>982500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>989000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>998500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1005000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1010100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>959900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>963100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>976300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>236100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>571600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>574400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>591800</v>
-      </c>
-      <c r="W49" s="3">
-        <v>579300</v>
       </c>
       <c r="X49" s="3">
         <v>579300</v>
       </c>
       <c r="Y49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="Z49" s="3">
         <v>573900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3570,8 +3683,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3644,82 +3760,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E52" s="3">
         <v>155400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>176400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>159700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>140600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>151100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>151000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>115800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>159200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>680700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>721200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>790900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>879400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>267700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>292300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>302600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>321900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>344000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>432600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3792,82 +3914,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6166500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6093000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5425000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5180600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4138500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3943200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3770600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3690800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3739100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3904600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3564400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3654400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4040800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4334900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4291500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4222000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3436700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3404600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3358200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3399200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3383700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3273900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3284700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3894,8 +4022,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3922,452 +4051,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E57" s="3">
         <v>660000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>693500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>589800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>588200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>532400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>457600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>392900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>328300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>366800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>393500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>347600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>412900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>420600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>458200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>415200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>374600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>419700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>420500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>397300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>393800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>406800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>378200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>225300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>425700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>338800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>700700</v>
+      </c>
+      <c r="E59" s="3">
         <v>665900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>711300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>623300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>619600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>552800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>578500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>508300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>501000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>493700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>509600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>507900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>562500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>767400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>757100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>730600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>735900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>651600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>665200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>578600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>586200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>543300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>581100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1347700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1328200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1442200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1256300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1251300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1129000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1079200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>949600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1054600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1286200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>944400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>904000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1015700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1205700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1256600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1484600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1115200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1076400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1035100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>980100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>985800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>956500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>964900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2498200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1779000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1787700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>832000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>908300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1013200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1060400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1069000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1068000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1083000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1240100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1245600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1179500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>891000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>429000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>428900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>431800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>437600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>438200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>435400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>433800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>315200</v>
+      </c>
+      <c r="E62" s="3">
         <v>286700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>289600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>286900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>285700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>270700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>273100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>269800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>259700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>245700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>251100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>249200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>247700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>356700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>272800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>288300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>391500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>418500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>596000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>411400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>411900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>408400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>448400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4440,8 +4588,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4514,8 +4665,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4588,82 +4742,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4161900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4113100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3510800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3330900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2369000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2260600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2232600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2374700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2263500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2236200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2503500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2808000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2708900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2663900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1935700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1923800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1875300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1829100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1835900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1800300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1844600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4690,8 +4850,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4764,8 +4925,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4838,8 +5002,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4912,8 +5079,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4986,82 +5156,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3036200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2866300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2720100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2644500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2527200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2374000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2225700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2151700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2032800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1981100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1931300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1883500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2140500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2081100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2135700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2110500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2056900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1994400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1966800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2100200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2035900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1931100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1881000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5134,8 +5310,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5208,8 +5387,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5282,82 +5464,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2004600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1979900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1914200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1849700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1769500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1642600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1510000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1458200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1364400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1303700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1418200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1537300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1526900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1582600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1558100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1501000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1480800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1482900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1570100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1547800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1473600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1440100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5430,161 +5618,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E81" s="3">
         <v>174200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>101500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>143100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>179400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>169300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>95100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>137900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>70700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-239300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>77500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>70000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>79000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-157800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>79000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>119400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>64900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5611,82 +5808,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E83" s="3">
         <v>53600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>38300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>28000</v>
       </c>
       <c r="W83" s="3">
         <v>28000</v>
       </c>
       <c r="X83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>27200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>26900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5759,8 +5960,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5833,8 +6037,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5907,8 +6114,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5981,8 +6191,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6055,82 +6268,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-141900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>109400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>123200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>333100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>157400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>424300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>295700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-79100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>217900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>77000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>218700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-79400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>103000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>268000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-67100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>145500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>83300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>258100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-86600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>145400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6157,82 +6376,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-86900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-88100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-80100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-51300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-117400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-102600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6305,8 +6528,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6379,82 +6605,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-220500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-92200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-102500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-123300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-33400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>374000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-934600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-57000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-22300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-106600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6481,82 +6713,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-25800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-26200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-19000</v>
       </c>
       <c r="K96" s="3">
         <v>-19000</v>
       </c>
       <c r="L96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-19200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-17700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-16500</v>
       </c>
       <c r="S96" s="3">
         <v>-16500</v>
       </c>
       <c r="T96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="U96" s="3">
         <v>-16600</v>
       </c>
       <c r="V96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="W96" s="3">
         <v>-14600</v>
       </c>
       <c r="X96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6629,8 +6865,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6703,8 +6942,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6777,226 +7019,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="E100" s="3">
         <v>559100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>880100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-139200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-56500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-170900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-288100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-228000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>325200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-211600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-330700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-96700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>38200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>768200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-54200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-60000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-30000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-75600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-54900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-43200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-45800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E102" s="3">
         <v>325600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>897400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>118300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-129200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>106400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>182600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-45900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-289900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>497100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-132800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-133400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>151900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-164800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>56400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-46100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>163400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-149100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,344 +662,356 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1698200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1835600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1695700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1431000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1427200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1554800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1433200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1161100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1233100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>987800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>965500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>917600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>976600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1163500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1050700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>961100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1044100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1148700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>967000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1182100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1141500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1352000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1082100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>748400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1199300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1299200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1212100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1054200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1016800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1093300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1015900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>824800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>856200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>731800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>726500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>671700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>692500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>826000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>772700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>730200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>765700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>875000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>722100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>906200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>822200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>989000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>785000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>518400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>498900</v>
+      </c>
+      <c r="E10" s="3">
         <v>536400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>483600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>376800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>410400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>461500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>417300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>336300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>376900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>256000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>239000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>245900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>284100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>337500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>278000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>230900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>278400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>273700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>244900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>275900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>319300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>363000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>297100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>230000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,85 +1039,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E12" s="3">
         <v>50200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>47400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>38100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>29700</v>
       </c>
       <c r="O12" s="3">
         <v>29700</v>
       </c>
       <c r="P12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="Q12" s="3">
         <v>33500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>29800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>29400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>32500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>29800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>37800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>35500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>36500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>34500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>26800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1181,85 +1197,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>8200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>302000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>36700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>53600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1335,8 +1357,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1361,162 +1386,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1460500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1556600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1456300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1309200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1226400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1304600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1201300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1024600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1040700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>880800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>862300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>841800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1151000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>936600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>891400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>951000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1055600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>872500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1160500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1027300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1180900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>978700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>721900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E18" s="3">
         <v>279000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>239400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>121800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>250200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>231900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>136500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>192400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>107000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-174400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>162700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>114100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>93100</v>
       </c>
       <c r="T18" s="3">
         <v>93100</v>
       </c>
       <c r="U18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="V18" s="3">
         <v>94500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>114200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>171100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>103400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>26500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1544,393 +1576,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-89400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>8500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>302600</v>
+      </c>
+      <c r="E21" s="3">
         <v>333000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>292400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>170600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>243600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>293000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>273200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>177300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>230400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>141000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>115300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-135400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>191100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>154500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>137200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>130700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>114600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>123800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-40200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>150700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>212000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>128500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>43000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E22" s="3">
         <v>25900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E23" s="3">
         <v>254600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>220400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>101600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>183400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>234600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>216800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>119100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>175700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-189600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>143800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>95000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>81900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>84500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-81200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>109000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>166500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>98400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>23300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E24" s="3">
         <v>55800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>47400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-36100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>47100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2006,162 +2054,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>168200</v>
+      </c>
+      <c r="E26" s="3">
         <v>198800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>174000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>102000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>144600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>179400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>169400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>96000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>70700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>75000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-232900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>112100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>85900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>70500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-45100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>119400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>74200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>168200</v>
+      </c>
+      <c r="E27" s="3">
         <v>198800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>174000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>102000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>144600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>179400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>169400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>96000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>136800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>71200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>70700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-232900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>112100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>76200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>67000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>70500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-45100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>79000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>119400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>74200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2237,85 +2294,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-7900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-112500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-15900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>12000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>2400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-112700</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2391,8 +2454,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2468,162 +2534,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>89400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-8500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E33" s="3">
         <v>197300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>174200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>143100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>179400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>169300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>95100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>137900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>70700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>69000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>67100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-239300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>70000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>79000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>72900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-157800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>79000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>119400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>64900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2699,167 +2774,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E35" s="3">
         <v>197300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>174200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>143100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>179400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>169300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>95100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>137900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>70700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>69000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>67100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-239300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>70000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>79000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>72900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-157800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>79000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>119400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>64900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2887,8 +2971,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2916,96 +3001,100 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>457400</v>
+      </c>
+      <c r="E41" s="3">
         <v>566700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>680100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>354500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1486400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>590200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>471900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>519600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>650400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>541500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>502900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>320300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>366200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>656100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>161500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>294400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>302400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>435900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>284000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>448800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>391100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>437200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>273300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>422400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E42" s="3">
         <v>37000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6800</v>
-      </c>
-      <c r="F42" s="3">
-        <v>800</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
@@ -3014,13 +3103,13 @@
         <v>800</v>
       </c>
       <c r="I42" s="3">
+        <v>800</v>
+      </c>
+      <c r="J42" s="3">
         <v>7300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>56700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>800</v>
       </c>
       <c r="L42" s="3">
         <v>800</v>
@@ -3044,13 +3133,13 @@
         <v>800</v>
       </c>
       <c r="S42" s="3">
+        <v>800</v>
+      </c>
+      <c r="T42" s="3">
         <v>9500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9400</v>
-      </c>
-      <c r="U42" s="3">
-        <v>800</v>
       </c>
       <c r="V42" s="3">
         <v>800</v>
@@ -3062,555 +3151,579 @@
         <v>800</v>
       </c>
       <c r="Y42" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z42" s="3">
         <v>700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>35800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>557700</v>
+      </c>
+      <c r="E43" s="3">
         <v>611000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>664700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>485300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>451100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>503300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>539100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>337600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>398800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>452600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>465400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>331800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>414700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>484500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>499200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>351800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>392500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>412400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>617500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>485300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>476400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>524600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>529500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>411500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1429800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1372400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1345700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1208000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>940500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>835100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>765600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>711800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>589400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>676900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>840100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>824500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>810200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>801800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>817300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>774000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>724600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>641300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>829700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>827700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>848600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>769300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>817600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>699000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E45" s="3">
         <v>98300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>93900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>63200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>101700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>459000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>459100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>437200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>392000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>130700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>152900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>49900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>119800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2595000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2685400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2791200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2124600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2942000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1988000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1835700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1670500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1681200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1714100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1869800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1525800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1693600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2011400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1937800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1880100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1866200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1891000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1862700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1846700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1776700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1777800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1671000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1688500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E47" s="3">
         <v>48000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>43800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>36300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>32700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>30000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>29500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>21700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>22500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>26600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>20700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1332500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1267400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1170500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1139700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1044600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>997900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>953100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>946600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>901100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>897300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>892900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>879600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>846100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>827400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>783000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>694500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>615900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>595000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>673100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>706000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>706400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>682200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>653000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>569000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1967600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2004900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1927800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1940500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>993000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>970600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>967000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>970000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>975900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>982500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>989000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>998500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1005000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1010100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>959900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>963100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>976300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>236100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>571600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>574400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>591800</v>
-      </c>
-      <c r="X49" s="3">
-        <v>579300</v>
       </c>
       <c r="Y49" s="3">
         <v>579300</v>
       </c>
       <c r="Z49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="AA49" s="3">
         <v>573900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3686,8 +3799,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3763,85 +3879,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E52" s="3">
         <v>160800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>155400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>176400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>159700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>140600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>151100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>151000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>115800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>121600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>81900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>159200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>680700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>721200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>790900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>879400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>267700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>292300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>302600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>321900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>344000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>432600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3917,85 +4039,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6124900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6166500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6093000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5425000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5180600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4138500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3943200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3770600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3690800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3739100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3904600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3564400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3654400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4040800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4334900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4291500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4222000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3436700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3404600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3358200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3399200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3383700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3273900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3284700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4023,8 +4151,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4052,470 +4181,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>631600</v>
+      </c>
+      <c r="E57" s="3">
         <v>644000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>660000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>693500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>589800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>588200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>532400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>457600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>392900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>328300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>366800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>393500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>347600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>412900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>420600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>458200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>415200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>374600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>419700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>420500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>397300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>393800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>406800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>378200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>225300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>425700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>41300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>338800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>662800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>665900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>711300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>623300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>619600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>552800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>578500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>508300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>501000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>493700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>509600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>507900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>562500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>767400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>757100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>730600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>735900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>651600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>665200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>578600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>586200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>543300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>581100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1379300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1347700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1328200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1442200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1256300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1251300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1129000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1079200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>949600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1054600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1286200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>944400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>904000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1015700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1205700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1256600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1484600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1115200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1076400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1035100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>980100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>985800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>956500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>964900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2419100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2499000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2498200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1779000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1787700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>832000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>908300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1013200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1060400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1069000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1068000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1083000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1240100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1245600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1179500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>891000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>429000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>428900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>431800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>437600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>438200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>435400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>433800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>325500</v>
+      </c>
+      <c r="E62" s="3">
         <v>315200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>286700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>289600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>286900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>285700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>270700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>273100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>269800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>259700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>245700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>251100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>249200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>247700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>356700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>272800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>288300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>391500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>418500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>596000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>411400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>411900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>408400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>448400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4591,8 +4739,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4668,8 +4819,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,85 +4899,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4123900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4161900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4113100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3510800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3330900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2369000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2260600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2232600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2374700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2263500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2236200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2503500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2808000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2708900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2663900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1935700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1923800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1875300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1829100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1835900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1800300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1844600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4851,8 +5011,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4928,8 +5089,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5005,8 +5169,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5082,8 +5249,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5159,85 +5329,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3173000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3036200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2866300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2720100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2644500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2527200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2374000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2225700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2151700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2032800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1981100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1931300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1883500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2140500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2081100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2135700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2110500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2056900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1994400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1966800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2100200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2035900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1931100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1881000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5313,8 +5489,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5390,8 +5569,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5467,85 +5649,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2004600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1979900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1914200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1849700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1769500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1642600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1510000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1458200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1364400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1303700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1418200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1537300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1526900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1582600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1558100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1501000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1480800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1482900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1570100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1547800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1473600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1440100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5621,167 +5809,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>163800</v>
+      </c>
+      <c r="E81" s="3">
         <v>197300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>174200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>143100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>179400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>169300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>95100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>137900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>70700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>69000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>67100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-239300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>70000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>79000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>72900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-157800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>79000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>119400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>64900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5809,85 +6006,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E83" s="3">
         <v>52500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>53600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27600</v>
-      </c>
-      <c r="W83" s="3">
-        <v>28000</v>
       </c>
       <c r="X83" s="3">
         <v>28000</v>
       </c>
       <c r="Y83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>27200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>26900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5963,8 +6164,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6040,8 +6244,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6117,8 +6324,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6194,8 +6404,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6271,85 +6484,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E89" s="3">
         <v>288800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-141900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>109400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>123200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>333100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>157400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>424300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>295700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-79100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>217900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>77000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>218700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-79400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>103000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>268000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-67100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>145500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>83300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>258100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-86600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>145400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6377,85 +6596,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-102800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-86900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-88100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-80100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-51300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-117400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-102600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6531,8 +6754,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6608,85 +6834,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-98500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-220500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-102500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-77100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-123300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>374000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-76600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-934600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-42000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-58300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-22300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-106600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6714,85 +6946,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-25900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-25800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-19000</v>
       </c>
       <c r="L96" s="3">
         <v>-19000</v>
       </c>
       <c r="M96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-19200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-16500</v>
       </c>
       <c r="T96" s="3">
         <v>-16500</v>
       </c>
       <c r="U96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="V96" s="3">
         <v>-16600</v>
       </c>
       <c r="W96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="X96" s="3">
         <v>-14600</v>
       </c>
       <c r="Y96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-14700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6868,8 +7104,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6945,8 +7184,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7022,235 +7264,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-165500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-170200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>559100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-62600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>880100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-139200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-56500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-170900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-288100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-228000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>325200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-211600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-330700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>38200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>768200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-54200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-60000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-30000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-75600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-43200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-45800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-113700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>325600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>897400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>118300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-129200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>106400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>182600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-289900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>497100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-132800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-133400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>151900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-164800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>56400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-46100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>163400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-149100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,356 +662,369 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1582700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1698200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1835600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1695700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1431000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1427200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1554800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1433200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1161100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1233100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>987800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>965500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>917600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>976600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1163500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1050700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>961100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1044100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1148700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>967000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1182100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1141500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1352000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1082100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>748400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1154400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1199300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1299200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1212100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1054200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1016800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1093300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1015900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>824800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>856200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>731800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>726500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>671700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>692500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>826000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>772700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>730200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>765700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>875000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>722100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>906200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>822200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>989000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>785000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>518400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>428300</v>
+      </c>
+      <c r="E10" s="3">
         <v>498900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>536400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>483600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>376800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>410400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>461500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>417300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>336300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>376900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>256000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>239000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>245900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>284100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>337500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>278000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>230900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>278400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>273700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>244900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>275900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>319300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>363000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>297100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>230000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,88 +1053,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E12" s="3">
         <v>50400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>47400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>38100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>29700</v>
       </c>
       <c r="P12" s="3">
         <v>29700</v>
       </c>
       <c r="Q12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="R12" s="3">
         <v>33500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>29800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>29400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>32500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>29800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>37800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>35500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>36500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>34500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>26800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1200,88 +1217,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>24600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>8200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>302000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>36700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>53600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>6800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>8300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1360,8 +1383,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1387,168 +1413,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1391100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1460500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1556600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1456300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1309200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1226400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1304600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1201300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1024600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1040700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>880800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>862300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>841800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1151000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>936600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>891400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>951000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1055600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>872500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1160500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1027300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1180900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>978700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>721900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>191600</v>
+      </c>
+      <c r="E18" s="3">
         <v>237700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>279000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>239400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>121800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>250200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>231900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>136500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>192400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>107000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>103200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-174400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>114100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>93100</v>
       </c>
       <c r="U18" s="3">
         <v>93100</v>
       </c>
       <c r="V18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="W18" s="3">
         <v>94500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>114200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>171100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>103400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>26500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1577,408 +1610,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-89400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>8500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>9300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>254900</v>
+      </c>
+      <c r="E21" s="3">
         <v>302600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>333000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>292400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>170600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>243600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>293000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>273200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>177300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>230400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>141000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-135400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>191100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>154500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>137200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>130700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>114600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>123800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-40200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>150700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>212000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>128500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>43000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E22" s="3">
         <v>26100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E23" s="3">
         <v>214700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>254600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>220400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>101600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>183400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>234600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>216800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>119100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>175700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>143800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>95000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>81900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>84500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-81200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>109000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>166500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>98400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>23300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E24" s="3">
         <v>46500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-36100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>47100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>24200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2057,168 +2106,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E26" s="3">
         <v>168200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>198800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>174000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>102000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>144600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>179400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>169400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>96000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>70700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>75000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-232900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>112100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>85900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>67000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>70500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-45100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>79000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>119400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>74200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E27" s="3">
         <v>168200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>198800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>174000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>102000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>144600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>179400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>169400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>96000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>136800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>71200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>70700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-232900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>67000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>70500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-45100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>79000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>119400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>74200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2297,88 +2355,94 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-4400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-7900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-34600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-112500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-15900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>12000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-112700</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-9300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2457,8 +2521,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2537,168 +2604,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>89400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E33" s="3">
         <v>163800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>197300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>174200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>143100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>179400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>169300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>95100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>137900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>70700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>69000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>67100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-239300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>70000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>79000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>72900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-157800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>79000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>119400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>64900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>17700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,173 +2853,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E35" s="3">
         <v>163800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>197300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>174200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>143100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>179400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>169300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>95100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>137900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>70700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>69000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>67100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-239300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>70000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>79000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>72900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-157800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>79000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>119400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>64900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>17700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2972,8 +3057,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3002,102 +3088,106 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>595600</v>
+      </c>
+      <c r="E41" s="3">
         <v>457400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>566700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>680100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>354500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1486400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>590200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>471900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>519600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>650400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>541500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>502900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>320300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>366200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>656100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>161500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>294400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>302400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>435900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>284000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>448800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>391100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>437200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>273300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>422400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="3">
         <v>34500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>800</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
@@ -3106,13 +3196,13 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
+        <v>800</v>
+      </c>
+      <c r="K42" s="3">
         <v>7300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>56700</v>
-      </c>
-      <c r="L42" s="3">
-        <v>800</v>
       </c>
       <c r="M42" s="3">
         <v>800</v>
@@ -3136,13 +3226,13 @@
         <v>800</v>
       </c>
       <c r="T42" s="3">
+        <v>800</v>
+      </c>
+      <c r="U42" s="3">
         <v>9500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9400</v>
-      </c>
-      <c r="V42" s="3">
-        <v>800</v>
       </c>
       <c r="W42" s="3">
         <v>800</v>
@@ -3154,576 +3244,600 @@
         <v>800</v>
       </c>
       <c r="Z42" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA42" s="3">
         <v>700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>35800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E43" s="3">
         <v>557700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>611000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>664700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>485300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>451100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>503300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>539100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>337600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>398800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>452600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>465400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>331800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>414700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>484500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>499200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>351800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>392500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>412400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>617500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>485300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>476400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>524600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>529500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>411500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1471400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1429800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1372400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1345700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1208000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>940500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>835100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>765600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>711800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>589400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>676900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>840100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>824500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>810200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>801800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>817300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>774000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>724600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>641300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>829700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>827700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>848600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>769300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>817600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>699000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E45" s="3">
         <v>115600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>93900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>63200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>101700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>68200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>459000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>459100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>437200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>392000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>130700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>152900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>59800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>45900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>49900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>119800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2695200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2595000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2685400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2791200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2124600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2942000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1988000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1835700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1670500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1681200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1714100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1869800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1525800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1693600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2011400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1937800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1880100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1866200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1891000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1862700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1846700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1776700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1777800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1671000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1688500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E47" s="3">
         <v>47700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>43800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>41300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>36300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>32600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>21700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>22500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>26600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>20700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1385600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1332500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1267400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1170500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1139700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1044600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>997900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>953100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>946600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>901100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>897300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>892900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>879600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>846100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>827400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>783000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>694500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>615900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>595000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>673100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>706000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>706400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>682200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>653000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>569000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1967600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2004900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1927800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1940500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>993000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>970600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>967000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>970000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>975900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>982500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>989000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>998500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1005000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1010100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>959900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>963100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>976300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>236100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>571600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>574400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>591800</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>579300</v>
       </c>
       <c r="Z49" s="3">
         <v>579300</v>
       </c>
       <c r="AA49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="AB49" s="3">
         <v>573900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3802,8 +3916,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3882,88 +3999,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>221500</v>
+      </c>
+      <c r="E52" s="3">
         <v>182100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>160800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>155400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>176400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>159700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>140600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>151100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>151000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>115800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>121600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>131000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>81900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>159200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>680700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>721200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>790900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>879400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>267700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>292300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>302600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>321900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>344000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>432600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4042,88 +4165,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6321300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6124900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6166500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6093000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5425000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5180600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4138500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3943200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3770600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3690800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3739100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3904600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3564400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3654400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4040800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4334900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4291500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4222000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3436700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3404600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3358200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3399200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3383700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3273900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3284700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4152,8 +4281,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4182,488 +4312,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>662600</v>
+      </c>
+      <c r="E57" s="3">
         <v>631600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>644000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>660000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>693500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>589800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>588200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>532400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>457600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>392900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>328300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>366800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>393500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>347600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>412900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>420600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>458200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>415200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>374600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>419700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>420500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>397300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>393800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>406800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>378200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E58" s="3">
         <v>84900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>37400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>225300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>425700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>41300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>41300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>338800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>738300</v>
+      </c>
+      <c r="E59" s="3">
         <v>662800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>665900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>711300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>623300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>619600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>552800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>578500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>508300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>501000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>493700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>509600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>507900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>562500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>767400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>757100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>730600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>735900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>651600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>665200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>578600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>586200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>543300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>581100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1489900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1379300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1347700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1328200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1442200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1256300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1251300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1129000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1079200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>949600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1054600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1286200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>944400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>904000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1015700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1205700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1256600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1484600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1115200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1076400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1035100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>980100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>985800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>956500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>964900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2419100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2499000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2498200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1779000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1787700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>832000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>900900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>908300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1013200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1060400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1069000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1068000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1083000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1240100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1245600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1179500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>891000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>429000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>428900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>431800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>437600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>438200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>435400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>433800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>369100</v>
+      </c>
+      <c r="E62" s="3">
         <v>325500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>315200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>286700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>289600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>286900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>285700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>270700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>273100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>269800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>259700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>245700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>251100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>249200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>247700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>356700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>272800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>288300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>391500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>418500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>596000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>411400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>411900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>408400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>448400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,8 +4891,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4822,8 +4974,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,88 +5057,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4279000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4123900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4161900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4113100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3510800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3330900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2369000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2260600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2232600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2374700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2263500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2236200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2503500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2808000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2708900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2663900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1935700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1923800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1875300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1829100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1835900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1800300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1844600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5012,8 +5173,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5092,8 +5254,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5172,8 +5337,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5252,8 +5420,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5332,88 +5503,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3288500</v>
+      </c>
+      <c r="E72" s="3">
         <v>3173000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3036200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2866300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2720100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2644500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2527200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2374000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2225700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2151700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2032800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1981100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1931300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1883500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2140500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2081100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2135700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2110500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2056900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1994400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1966800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2100200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2035900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1931100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1881000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5492,8 +5669,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5572,8 +5752,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5652,88 +5835,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2042300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2001000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2004600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1979900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1914200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1849700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1769500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1642600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1510000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1458200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1364400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1303700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1418200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1537300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1526900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1582600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1558100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1501000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1480800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1482900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1570100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1547800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1473600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1440100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5812,173 +6001,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E81" s="3">
         <v>163800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>197300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>174200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>143100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>179400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>169300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>95100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>137900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>70700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>69000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>67100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-239300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>70000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>79000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>72900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-157800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>79000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>119400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>64900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>17700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6007,88 +6205,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E83" s="3">
         <v>61800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>53600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27600</v>
-      </c>
-      <c r="X83" s="3">
-        <v>28000</v>
       </c>
       <c r="Y83" s="3">
         <v>28000</v>
       </c>
       <c r="Z83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>27200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>26900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6167,8 +6369,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6247,8 +6452,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6327,8 +6535,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6407,8 +6618,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6487,88 +6701,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>274700</v>
+      </c>
+      <c r="E89" s="3">
         <v>164500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>288800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-141900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>109400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>123200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>333100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>157400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>424300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>295700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-79100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>217900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>77000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>218700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-79400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>103000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>268000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-67100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>145500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>83300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>258100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-86600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>145400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6597,88 +6817,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-102800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-95600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-86900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-67400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-88100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-80100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-47200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-51300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-117400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-102600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6757,8 +6981,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6837,88 +7064,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-98500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-220500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-92200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-102500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-77100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-123300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>374000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-91900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-76600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-934600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-42000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-57000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-58300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-22300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-106600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6947,88 +7180,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-27000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-28000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-25900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-25800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-26200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-19000</v>
       </c>
       <c r="M96" s="3">
         <v>-19000</v>
       </c>
       <c r="N96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-19200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-16500</v>
       </c>
       <c r="U96" s="3">
         <v>-16500</v>
       </c>
       <c r="V96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="W96" s="3">
         <v>-16600</v>
       </c>
       <c r="X96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="Y96" s="3">
         <v>-14600</v>
       </c>
       <c r="Z96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-14700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7107,8 +7344,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7187,8 +7427,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7267,244 +7510,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-165500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-170200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>559100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>880100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-139200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-56500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-170900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-288100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-228000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>325200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-211600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-330700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-96700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>38200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-33500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>768200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-54200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-60000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-30000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-75600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-54900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-43200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-45800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-109500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-113700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>325600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>897400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>118300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-129200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>106400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>182600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-289900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>497100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-132800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-133400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>151900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-164800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>56400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-46100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>163400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-149100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,369 +662,382 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1743600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1582700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1698200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1835600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1695700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1431000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1427200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1554800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1433200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1161100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1233100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>987800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>965500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>917600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>976600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1163500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1050700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>961100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1044100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1148700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>967000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1182100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1141500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1352000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1082100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>748400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1154400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1199300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1299200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1212100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1054200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1016800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1093300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1015900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>824800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>856200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>731800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>726500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>671700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>692500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>826000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>772700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>730200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>765700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>875000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>722100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>906200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>822200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>989000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>785000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>518400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>505600</v>
+      </c>
+      <c r="E10" s="3">
         <v>428300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>498900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>536400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>483600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>376800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>410400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>461500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>417300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>336300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>376900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>256000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>239000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>245900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>284100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>337500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>278000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>230900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>278400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>273700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>244900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>275900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>319300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>363000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>297100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>230000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,91 +1067,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E12" s="3">
         <v>50900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>47400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>29700</v>
       </c>
       <c r="Q12" s="3">
         <v>29700</v>
       </c>
       <c r="R12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="S12" s="3">
         <v>33500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>29800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>29400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>32500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>29800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>37800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>35500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>36500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>34500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>26800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1220,91 +1237,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>8200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>302000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>36700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>53600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>6800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>8300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>6400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1386,8 +1409,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1414,174 +1440,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1507500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1391100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1460500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1556600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1456300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1309200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1226400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1304600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1201300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1024600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1040700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>880800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>862300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>841800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1151000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>936600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>891400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>951000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1055600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>872500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1160500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1027300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1180900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>978700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>721900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E18" s="3">
         <v>191600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>237700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>279000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>239400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>121800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>250200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>231900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>136500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>192400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>107000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-174400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>162700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>114100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>69700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>93100</v>
       </c>
       <c r="V18" s="3">
         <v>93100</v>
       </c>
       <c r="W18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="X18" s="3">
         <v>94500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>114200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>171100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>103400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>26500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1611,423 +1644,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-89400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>8500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>304300</v>
+      </c>
+      <c r="E21" s="3">
         <v>254900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>302600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>333000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>292400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>170600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>243600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>293000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>273200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>177300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>230400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>141000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>115300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-135400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>191100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>154500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>137200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>130700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>114600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>123800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>150700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>212000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>128500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>43000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E22" s="3">
         <v>27700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>6500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>211400</v>
+      </c>
+      <c r="E23" s="3">
         <v>163900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>214700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>254600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>220400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>101600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>183400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>234600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>216800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>119100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>175700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-189600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>143800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>81900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>84500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>89100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-81200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>109000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>166500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>98400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>23300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>55800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-36100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>30000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>47100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2109,174 +2158,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E26" s="3">
         <v>140300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>168200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>198800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>174000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>102000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>144600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>179400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>169400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>96000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>70700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>75000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-232900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>112100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>85900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>67000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>70500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>79000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>119400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>74200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>16000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E27" s="3">
         <v>140300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>168200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>198800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>174000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>102000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>144600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>169400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>96000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>136800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>71200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-232900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>67000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>70500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>79000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>119400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>74200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>16000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2358,91 +2416,97 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>1400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-4400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-6400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-34600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-112500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-15900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>12000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>2400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-112700</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>1700</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2524,8 +2588,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2607,174 +2674,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>89400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E33" s="3">
         <v>141700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>163800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>197300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>174200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>101500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>143100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>169300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>95100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>137900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>70700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-239300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>77500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-36300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>70000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>79000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>72900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-157800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>79000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>119400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>64900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>17700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2856,179 +2932,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E35" s="3">
         <v>141700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>163800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>197300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>174200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>101500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>143100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>169300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>95100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>137900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>70700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-239300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>77500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-36300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>70000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>79000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>72900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-157800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>79000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>119400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>64900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>17700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3058,8 +3143,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3089,108 +3175,112 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E41" s="3">
         <v>595600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>457400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>566700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>680100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>354500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1486400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>590200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>471900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>519600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>650400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>541500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>502900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>320300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>366200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>656100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>161500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>294400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>302400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>435900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>284000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>448800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>391100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>437200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>273300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>422400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>800</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
@@ -3199,13 +3289,13 @@
         <v>800</v>
       </c>
       <c r="K42" s="3">
+        <v>800</v>
+      </c>
+      <c r="L42" s="3">
         <v>7300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>56700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>800</v>
       </c>
       <c r="N42" s="3">
         <v>800</v>
@@ -3229,13 +3319,13 @@
         <v>800</v>
       </c>
       <c r="U42" s="3">
+        <v>800</v>
+      </c>
+      <c r="V42" s="3">
         <v>9500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9400</v>
-      </c>
-      <c r="W42" s="3">
-        <v>800</v>
       </c>
       <c r="X42" s="3">
         <v>800</v>
@@ -3247,597 +3337,621 @@
         <v>800</v>
       </c>
       <c r="AA42" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB42" s="3">
         <v>700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>35800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E43" s="3">
         <v>543000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>557700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>611000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>664700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>485300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>451100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>503300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>539100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>337600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>398800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>452600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>465400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>331800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>414700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>484500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>499200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>351800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>392500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>412400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>617500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>485300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>476400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>524600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>529500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>411500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1471400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1429800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1372400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1345700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1208000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>940500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>835100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>765600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>711800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>589400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>676900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>840100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>824500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>810200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>801800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>817300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>774000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>724600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>641300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>829700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>827700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>848600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>769300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>817600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>699000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E45" s="3">
         <v>80700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>115600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>98300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>63200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>51800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>101700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>459000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>459100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>437200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>392000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>130700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>152900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>59800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>45900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>49900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>119800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2678400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2695200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2595000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2685400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2791200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2124600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2942000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1988000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1835700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1670500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1681200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1714100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1869800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1525800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1693600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2011400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1937800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1880100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1866200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1891000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1862700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1846700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1776700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1777800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1671000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1688500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E47" s="3">
         <v>54000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>47700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>43800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>41400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>32600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>26400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>30000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>25100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>21700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>22500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>26600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>20700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1416100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1385600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1332500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1267400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1170500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1139700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1044600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>997900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>953100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>946600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>901100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>897300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>892900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>879600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>846100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>827400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>783000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>694500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>615900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>595000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>673100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>706000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>706400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>682200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>653000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>569000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1966400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1965000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1967600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2004900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1927800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1940500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>993000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>970600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>967000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>970000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>975900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>982500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>989000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>998500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1005000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1010100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>959900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>963100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>976300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>236100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>571600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>574400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>591800</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>579300</v>
       </c>
       <c r="AA49" s="3">
         <v>579300</v>
       </c>
       <c r="AB49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="AC49" s="3">
         <v>573900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3919,8 +4033,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4002,91 +4119,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E52" s="3">
         <v>221500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>182100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>160800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>155400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>176400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>159700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>140600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>151100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>151000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>115800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>121600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>131000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>81900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>159200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>680700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>721200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>790900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>879400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>267700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>292300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>302600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>321900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>344000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>432600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4168,91 +4291,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6288600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6321300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6124900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6166500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6093000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5425000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5180600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4138500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3943200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3770600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3690800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3739100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3904600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3564400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3654400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4040800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4334900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4291500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4222000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3436700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3404600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3358200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3399200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3383700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3273900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3284700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4282,8 +4411,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4313,506 +4443,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E57" s="3">
         <v>662600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>631600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>644000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>660000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>693500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>589800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>588200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>532400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>457600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>392900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>328300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>366800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>393500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>347600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>412900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>420600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>458200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>415200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>374600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>419700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>420500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>397300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>393800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>406800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>378200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E58" s="3">
         <v>89000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>84900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>225300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>425700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>41300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>338800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>754800</v>
+      </c>
+      <c r="E59" s="3">
         <v>738300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>662800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>665900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>711300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>623300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>619600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>552800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>578500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>508300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>501000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>493700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>509600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>507900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>562500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>767400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>757100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>730600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>735900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>651600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>665200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>578600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>586200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>543300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>581100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1438600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1489900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1379300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1347700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1328200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1442200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1256300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1251300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1079200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>949600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1054600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1286200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>944400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>904000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1015700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1205700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1256600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1484600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1115200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1076400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1035100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>980100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>985800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>956500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>964900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2420500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2420000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2419100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2499000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2498200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1779000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1787700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>832000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>900900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>908300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1013200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1060400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1069000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1083000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1240100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1245600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1179500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>891000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>429000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>428900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>431800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>437600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>438200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>435400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>433800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E62" s="3">
         <v>369100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>325500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>315200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>286700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>289600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>286900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>285700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>270700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>273100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>269800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>259700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>245700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>251100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>249200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>247700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>356700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>272800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>288300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>391500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>418500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>596000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>411400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>411900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>408400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>448400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4894,8 +5043,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4977,8 +5129,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5060,91 +5215,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4226100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4279000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4123900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4161900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4113100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3510800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3330900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2369000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2260600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2232600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2374700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2263500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2236200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2503500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2808000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2708900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2663900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1935700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1923800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1875300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1829100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1835900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1800300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1844600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5174,8 +5335,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5257,8 +5419,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5340,8 +5505,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5423,8 +5591,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5506,91 +5677,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3372300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3288500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3173000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3036200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2866300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2720100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2644500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2527200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2374000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2225700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2151700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2032800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1981100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1931300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1883500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2140500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2081100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2135700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2110500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2056900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1994400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1966800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2100200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2035900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1931100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1881000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5672,8 +5849,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5755,8 +5935,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5838,91 +6021,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2062500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2042300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2001000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2004600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1979900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1914200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1849700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1769500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1642600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1510000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1458200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1364400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1303700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1418200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1537300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1526900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1582600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1558100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1501000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1480800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1482900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1570100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1547800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1473600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1440100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6004,179 +6193,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E81" s="3">
         <v>141700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>163800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>197300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>174200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>101500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>143100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>169300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>95100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>137900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>70700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-239300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>77500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-36300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>70000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>79000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>72900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-157800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>79000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>119400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>64900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>17700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6206,91 +6404,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E83" s="3">
         <v>63300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>61800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>27800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27600</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>28000</v>
       </c>
       <c r="Z83" s="3">
         <v>28000</v>
       </c>
       <c r="AA83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>27200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>26900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6372,8 +6574,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6455,8 +6660,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6538,8 +6746,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6621,8 +6832,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6704,91 +6918,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E89" s="3">
         <v>274700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>164500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>288800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-141900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>109400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>123200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>333100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>157400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>424300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>295700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-79100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>217900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>218700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-79400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>103000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>33100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>268000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-67100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>145500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>83300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>258100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-86600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>145400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6818,91 +7038,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-102800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-95600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-86900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-88100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-80100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-47200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-117400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-102600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6984,8 +7208,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7067,91 +7294,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-98500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-220500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-92200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-102500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-77100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-123300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>374000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-91900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-76600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-934600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-54100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-42000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-57000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-58300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-41300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-22300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-106600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7181,91 +7414,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-26200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-27000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-28000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-25900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-26200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-19000</v>
       </c>
       <c r="N96" s="3">
         <v>-19000</v>
       </c>
       <c r="O96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-19200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-16500</v>
       </c>
       <c r="V96" s="3">
         <v>-16500</v>
       </c>
       <c r="W96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="X96" s="3">
         <v>-16600</v>
       </c>
       <c r="Y96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="Z96" s="3">
         <v>-14600</v>
       </c>
       <c r="AA96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-14800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-14700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7347,8 +7584,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7430,8 +7670,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7513,253 +7756,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-112600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-165500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-170200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>559100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>880100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-139200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-170900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-288100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-228000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>325200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-211600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-330700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-96700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>38200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-33500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>768200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-54200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-60000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-75600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-54900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-43200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-45800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>9300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-209600</v>
+      </c>
+      <c r="E102" s="3">
         <v>139400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-113700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>325600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>897400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>118300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-129200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>106400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>182600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-45900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-289900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>497100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-132800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-133400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>151900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-164800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>56400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-46100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>163400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-149100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,382 +662,394 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1702300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1743600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1582700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1698200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1835600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1695700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1431000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1427200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1554800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1433200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1161100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1233100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>987800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>965500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>917600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>976600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1163500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1050700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>961100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1044100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1148700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>967000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1182100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1141500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1352000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1082100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>748400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1238000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1154400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1199300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1299200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1212100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1054200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1016800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1093300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1015900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>824800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>856200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>731800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>726500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>671700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>692500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>826000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>772700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>730200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>765700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>875000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>722100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>906200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>822200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>989000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>785000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>518400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>472300</v>
+      </c>
+      <c r="E10" s="3">
         <v>505600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>428300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>498900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>536400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>483600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>376800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>410400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>461500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>417300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>336300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>376900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>256000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>239000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>245900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>284100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>337500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>278000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>230900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>278400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>273700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>244900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>275900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>319300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>363000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>297100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>230000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,94 +1080,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E12" s="3">
         <v>48700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>47400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28900</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>29700</v>
       </c>
       <c r="R12" s="3">
         <v>29700</v>
       </c>
       <c r="S12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="T12" s="3">
         <v>33500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>29800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>29400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>32500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>29800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>37800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>35500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>36500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>34500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>26800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1240,94 +1256,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E14" s="3">
         <v>9500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>302000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>36700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>53600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5700</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>8300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>6400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1412,8 +1434,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1441,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1507900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1507500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1391100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1460500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1556600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1456300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1309200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1226400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1304600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1201300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1024600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1040700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>880800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>862300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>841800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1151000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>936600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>891400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>951000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1055600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>872500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1160500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1027300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1180900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>978700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>721900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E18" s="3">
         <v>236100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>191600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>237700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>279000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>239400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>121800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>250200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>231900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>136500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>192400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>107000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>75800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-174400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>162700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>114100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>69700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>93100</v>
       </c>
       <c r="W18" s="3">
         <v>93100</v>
       </c>
       <c r="X18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>94500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>114200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>171100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>103400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>26500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1645,438 +1677,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-89400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>8500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>9300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E21" s="3">
         <v>304300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>254900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>302600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>333000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>292400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>170600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>243600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>293000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>273200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>177300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>230400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>141000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>115300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-135400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>191100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>154500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>137200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>130700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>114600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>123800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>150700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>212000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>128500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>43000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E22" s="3">
         <v>28200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>26100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6500</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E23" s="3">
         <v>211400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>163900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>214700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>254600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>220400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>101600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>183400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>234600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>216800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>119100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>175700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-189600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>143800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>95000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>81900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>84500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>89100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-81200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>109000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>166500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>98400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>23300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E24" s="3">
         <v>99000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>55800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-36100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>30000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>47100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>24200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2161,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E26" s="3">
         <v>112400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>140300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>168200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>198800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>174000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>102000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>144600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>169400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>96000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>71200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>75000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-232900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>112100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>85900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>67000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>70500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>79000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>119400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>74200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>16000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E27" s="3">
         <v>112400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>140300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>168200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>198800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>174000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>102000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>144600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>169400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>96000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>136800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>71200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>75000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-232900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>112100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>67000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>70500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>79000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>119400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>74200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>16000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2419,94 +2476,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-4400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-7900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-34600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-112500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-15900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>12000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>2400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-112700</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>1700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2591,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2677,180 +2743,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>89400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E33" s="3">
         <v>112300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>141700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>163800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>197300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>174200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>101500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>143100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>169300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>95100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>137900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>70700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-239300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>77500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-36300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>70000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>79000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>72900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-157800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>79000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>119400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>64900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>17700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2935,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E35" s="3">
         <v>112300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>141700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>163800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>197300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>174200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>101500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>143100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>169300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>95100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>137900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>70700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-239300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>77500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-36300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>70000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>79000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>72900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-157800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>79000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>119400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>64900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>17700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3144,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3176,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>477500</v>
+      </c>
+      <c r="E41" s="3">
         <v>387800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>595600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>457400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>566700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>680100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>354500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1486400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>590200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>471900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>519600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>650400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>541500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>502900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>320300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>366200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>656100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>161500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>294400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>302400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>435900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>284000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>448800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>391100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>437200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>273300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>422400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3271,19 +3360,19 @@
         <v>800</v>
       </c>
       <c r="E42" s="3">
+        <v>800</v>
+      </c>
+      <c r="F42" s="3">
         <v>4500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>37000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -3292,13 +3381,13 @@
         <v>800</v>
       </c>
       <c r="L42" s="3">
+        <v>800</v>
+      </c>
+      <c r="M42" s="3">
         <v>7300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>56700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>800</v>
       </c>
       <c r="O42" s="3">
         <v>800</v>
@@ -3322,13 +3411,13 @@
         <v>800</v>
       </c>
       <c r="V42" s="3">
+        <v>800</v>
+      </c>
+      <c r="W42" s="3">
         <v>9500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9400</v>
-      </c>
-      <c r="X42" s="3">
-        <v>800</v>
       </c>
       <c r="Y42" s="3">
         <v>800</v>
@@ -3340,618 +3429,642 @@
         <v>800</v>
       </c>
       <c r="AB42" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC42" s="3">
         <v>700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>35800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>614500</v>
+      </c>
+      <c r="E43" s="3">
         <v>698000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>543000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>557700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>611000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>664700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>485300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>451100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>503300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>539100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>337600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>398800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>452600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>465400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>331800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>414700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>484500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>499200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>351800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>392500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>412400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>617500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>485300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>476400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>524600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>529500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>411500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1484200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1506000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1471400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1429800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1372400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1345700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1208000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>940500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>835100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>765600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>711800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>589400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>676900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>840100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>824500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>810200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>801800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>817300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>774000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>724600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>641300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>829700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>827700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>848600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>769300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>817600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>699000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E45" s="3">
         <v>85800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>115600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>58600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>101700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>459000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>459100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>437200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>392000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>130700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>152900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>45900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>49900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>119800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2672800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2678400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2695200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2595000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2685400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2791200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2124600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2942000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1988000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1835700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1670500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1681200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1714100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1869800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1525800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1693600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2011400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1937800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1880100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1866200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1891000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1862700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1846700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1776700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1777800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1671000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1688500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E47" s="3">
         <v>61500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>47700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>48100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>43800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>41300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>29500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>32700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>32600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>26400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>30000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>29500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>25100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>21700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>22500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>26600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>20700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1435200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1416100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1385600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1332500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1267400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1170500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1139700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1044600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>997900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>953100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>946600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>901100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>897300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>892900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>879600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>846100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>827400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>783000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>694500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>615900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>595000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>673100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>706000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>706400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>682200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>653000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>569000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1954000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1966400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1965000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1967600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2004900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1927800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1940500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>993000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>970600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>967000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>970000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>975900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>982500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>989000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>998500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1005000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1010100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>959900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>963100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>976300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>236100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>571600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>574400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>591800</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>579300</v>
       </c>
       <c r="AB49" s="3">
         <v>579300</v>
       </c>
       <c r="AC49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="AD49" s="3">
         <v>573900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4036,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4122,94 +4238,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E52" s="3">
         <v>166200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>221500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>182100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>160800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>155400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>176400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>159700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>151100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>151000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>107100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>115800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>121600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>131000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>159200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>680700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>721200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>790900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>879400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>267700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>292300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>302600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>321900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>344000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>432600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4294,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6290100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6288600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6321300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6124900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6166500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6093000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5425000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5180600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4138500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3943200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3770600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3690800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3739100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3904600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3564400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3654400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4040800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4334900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4291500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4222000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3436700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3404600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3358200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3399200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3383700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3273900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3284700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4412,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4444,524 +4573,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>549400</v>
+      </c>
+      <c r="E57" s="3">
         <v>594000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>662600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>631600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>644000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>660000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>693500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>589800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>588200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>532400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>457600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>392900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>328300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>366800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>393500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>347600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>412900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>420600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>458200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>415200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>374600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>419700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>420500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>397300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>393800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>406800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>378200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E58" s="3">
         <v>89800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>84900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>37400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>225300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>425700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>48500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>41300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>338800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>756300</v>
+      </c>
+      <c r="E59" s="3">
         <v>754800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>738300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>662800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>665900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>711300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>623300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>619600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>552800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>578500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>508300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>501000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>493700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>509600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>507900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>562500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>767400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>757100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>730600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>735900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>651600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>665200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>578600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>586200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>543300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>581100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1438600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1489900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1379300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1347700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1328200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1442200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1256300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1251300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1129000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1079200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>949600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1054600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1286200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>944400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>904000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1015700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1205700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1256600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1484600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1115200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1076400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1035100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>980100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>985800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>956500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>964900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2422000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2420500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2420000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2419100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2499000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2498200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1779000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1787700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>832000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>908300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1013200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1060400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1069000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1068000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1083000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1240100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1245600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1179500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>891000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>429000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>428900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>431800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>437600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>438200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>435400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>433800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>372700</v>
+      </c>
+      <c r="E62" s="3">
         <v>367000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>369100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>325500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>315200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>286700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>289600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>286900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>285700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>270700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>273100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>269800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>259700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>245700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>251100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>249200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>247700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>356700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>272800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>288300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>391500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>418500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>596000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>411400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>411900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>408400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>448400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5046,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5132,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5218,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4188700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4226100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4279000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4123900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4161900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4113100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3510800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3330900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2369000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2260600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2232600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2374700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2263500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2236200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2503500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2808000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2708900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2663900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1935700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1923800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1875300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1829100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1835900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1800300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1844600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5336,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5422,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5508,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5594,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5680,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3478700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3372300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3288500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3173000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3036200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2866300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2720100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2644500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2527200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2374000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2225700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2151700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2032800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1981100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1931300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1883500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2140500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2081100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2135700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2110500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2056900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1994400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1966800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2100200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2035900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1931100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1881000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5852,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5938,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6024,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2101400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2062500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2042300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2001000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2004600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1979900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1914200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1849700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1769500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1642600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1510000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1458200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1364400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1303700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1418200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1537300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1526900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1582600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1558100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1501000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1480800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1482900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1570100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1547800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1473600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1440100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6196,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E81" s="3">
         <v>112300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>141700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>163800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>197300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>174200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>101500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>143100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>169300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>95100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>137900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>70700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-239300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>77500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-36300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>70000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>79000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>72900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-157800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>79000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>119400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>64900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>17700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6405,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E83" s="3">
         <v>64700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>27800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27600</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>28000</v>
       </c>
       <c r="AA83" s="3">
         <v>28000</v>
       </c>
       <c r="AB83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>27200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>26900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6577,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6663,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6749,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6835,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6921,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>267900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>274700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>164500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>288800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-141900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>109400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>123200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>333100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>157400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>424300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>295700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-79100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>217900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>218700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-79400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>103000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>33100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>268000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-67100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>145500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>83300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>258100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-86600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>145400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7039,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-93500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-102800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-95600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-86900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-88100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-80100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-47200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-35900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-45500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-117400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-102600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7211,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7297,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-98500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-220500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-92200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-102500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-123300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>374000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-76600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-934600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-54100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-57000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-58300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-41300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-22300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-106600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7415,94 +7647,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-26200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-27000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-28000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-25800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-19000</v>
       </c>
       <c r="O96" s="3">
         <v>-19000</v>
       </c>
       <c r="P96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-19300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-16500</v>
       </c>
       <c r="W96" s="3">
         <v>-16500</v>
       </c>
       <c r="X96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="Y96" s="3">
         <v>-16600</v>
       </c>
       <c r="Z96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="AA96" s="3">
         <v>-14600</v>
       </c>
       <c r="AB96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-14700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7587,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7673,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7759,262 +8001,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-112600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-165500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-170200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>559100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>880100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-139200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-170900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-288100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-228000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>325200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-211600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-330700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-96700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>38200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-33500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>768200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-54200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-75600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-54900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-43200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-45800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>3000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5500</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-209600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>139400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-109500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-113700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>325600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>897400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>118300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-129200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>106400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>182600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-45900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-289900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>497100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-132800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-133400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>151900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-164800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>56400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-46100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>163400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-149100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-55600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BC_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,394 +662,407 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1593600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1702300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1743600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1582700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1698200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1835600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1695700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1431000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1427200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1554800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1433200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1161100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1233100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>987800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>965500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>917600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>976600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1163500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1050700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>961100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1044100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1148700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>967000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1182100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1141500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1352000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1082100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>748400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1093000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1148900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1230000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1238000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1154400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1199300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1299200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1212100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1054200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1016800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1093300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1015900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>824800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>856200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>731800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>726500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>671700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>692500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>826000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>772700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>730200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>765700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>875000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>722100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>906200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>822200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>989000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>785000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>518400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>781200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>444700</v>
+      </c>
+      <c r="E10" s="3">
         <v>472300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>505600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>428300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>498900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>536400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>483600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>376800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>410400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>461500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>417300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>336300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>376900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>256000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>239000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>245900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>284100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>337500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>278000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>230900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>278400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>273700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>244900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>275900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>319300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>363000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>297100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>230000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>311800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,97 +1094,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E12" s="3">
         <v>48900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>47400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>37500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>29700</v>
       </c>
       <c r="S12" s="3">
         <v>29700</v>
       </c>
       <c r="T12" s="3">
+        <v>29700</v>
+      </c>
+      <c r="U12" s="3">
         <v>33500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>29800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>29400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>32500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>29800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>37800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>35500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>36500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>34500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>26800</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,97 +1276,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E14" s="3">
         <v>13900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>302000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>36700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>53600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5700</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>8300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>6400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1437,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1467,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1397500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1507900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1507500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1391100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1460500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1556600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1456300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1309200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1226400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1304600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1201300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1024600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1040700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>880800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>862300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>841800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1151000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>936600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>891400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>951000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1055600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>872500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1160500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1027300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1180900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>978700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>721900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>970500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E18" s="3">
         <v>194400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>236100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>191600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>237700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>279000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>239400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>121800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>250200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>231900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>136500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>192400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>107000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-174400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>162700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>114100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>69700</v>
-      </c>
-      <c r="W18" s="3">
-        <v>93100</v>
       </c>
       <c r="X18" s="3">
         <v>93100</v>
       </c>
       <c r="Y18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>94500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>114200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>171100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>103400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>26500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>122500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1678,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-89400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>8500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>9300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E21" s="3">
         <v>267800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>304300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>254900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>302600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>333000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>292400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>170600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>243600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>293000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>273200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>177300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>230400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>141000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>115300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-135400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>191100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>154500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>137200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>130700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>114600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>123800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>150700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>212000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>128500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>43000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>150900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E22" s="3">
         <v>28800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>26100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>6500</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>160100</v>
+      </c>
+      <c r="E23" s="3">
         <v>171600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>211400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>163900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>214700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>254600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>220400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>101600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>234600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>216800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>175700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>88800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-189600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>143800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>95000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>81900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>84500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>89100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-81200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>109000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>166500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>98400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>23300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E24" s="3">
         <v>36300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>99000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-13500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-36100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>30000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>47100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>24200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>32800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2212,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E26" s="3">
         <v>135300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>112400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>140300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>168200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>198800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>174000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>102000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>144600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>179400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>169400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>96000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>75000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-232900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>112100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>85900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>67000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>70500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-45100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>79000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>119400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>74200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>16000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E27" s="3">
         <v>135300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>112400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>140300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>168200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>198800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>174000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>102000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>144600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>169400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>96000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>136800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>71200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-232900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>112100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>85900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>67000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>70500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-45100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>79000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>119400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>74200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>16000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>85300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2479,97 +2537,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-7900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-6400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-34600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-112500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-4800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-15900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>12000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>2400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-112700</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-9300</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>1700</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2657,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2746,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>89400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E33" s="3">
         <v>134700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>112300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>141700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>163800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>197300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>174200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>101500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>169300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>95100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>137900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>70700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>67100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-239300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>77500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-36300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>70000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>79000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>72900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-157800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>79000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>119400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>64900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>17700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3013,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E35" s="3">
         <v>134700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>112300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>141700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>163800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>197300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>174200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>101500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>169300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>95100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>137900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>70700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>67100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-239300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>77500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-36300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>70000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>79000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>72900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-157800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>79000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>119400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>64900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>17700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3229,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3262,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>330900</v>
+      </c>
+      <c r="E41" s="3">
         <v>477500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>387800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>595600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>457400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>566700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>680100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>354500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1486400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>590200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>471900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>519600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>650400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>541500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>502900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>320300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>366200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>656100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>161500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>294400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>302400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>435900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>284000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>448800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>391100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>437200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>273300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>422400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>437200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3363,19 +3453,19 @@
         <v>800</v>
       </c>
       <c r="F42" s="3">
+        <v>800</v>
+      </c>
+      <c r="G42" s="3">
         <v>4500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>37000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>800</v>
       </c>
       <c r="K42" s="3">
         <v>800</v>
@@ -3384,13 +3474,13 @@
         <v>800</v>
       </c>
       <c r="M42" s="3">
+        <v>800</v>
+      </c>
+      <c r="N42" s="3">
         <v>7300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>56700</v>
-      </c>
-      <c r="O42" s="3">
-        <v>800</v>
       </c>
       <c r="P42" s="3">
         <v>800</v>
@@ -3414,13 +3504,13 @@
         <v>800</v>
       </c>
       <c r="W42" s="3">
+        <v>800</v>
+      </c>
+      <c r="X42" s="3">
         <v>9500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>9400</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>800</v>
       </c>
       <c r="Z42" s="3">
         <v>800</v>
@@ -3432,639 +3522,663 @@
         <v>800</v>
       </c>
       <c r="AC42" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD42" s="3">
         <v>700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>35800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>568200</v>
+      </c>
+      <c r="E43" s="3">
         <v>614500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>698000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>543000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>557700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>611000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>664700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>485300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>451100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>503300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>539100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>337600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>398800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>452600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>465400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>331800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>414700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>484500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>499200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>351800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>392500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>412400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>617500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>485300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>476400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>524600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>529500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>411500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>454600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1484200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1506000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1471400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1429800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1372400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1345700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1208000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>940500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>835100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>765600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>711800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>589400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>676900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>840100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>824500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>810200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>801800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>817300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>774000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>724600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>641300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>829700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>827700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>848600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>769300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>817600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>699000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>755000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E45" s="3">
         <v>95800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>85800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>80700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>115600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>76000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>41800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>101700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>459000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>459100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>437200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>392000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>130700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>152900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>59800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>45900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>49900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>119800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2441300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2672800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2678400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2695200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2595000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2685400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2791200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2124600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2942000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1988000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1835700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1670500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1681200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1714100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1869800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1525800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1693600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2011400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1937800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1880100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1866200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1891000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1862700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1846700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1776700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1777800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1671000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1688500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1698800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E47" s="3">
         <v>60000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>61500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>47700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>48000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>48100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>43800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>29500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>32700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>35500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>32600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>26400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>30000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>29500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>25100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>21700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>22500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>26600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>20700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1447800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1435200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1416100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1385600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1332500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1267400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1170500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1139700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1044600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>997900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>953100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>946600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>901100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>897300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>892900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>879600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>846100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>827400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>783000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>694500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>615900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>595000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>673100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>706000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>706400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>682200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>653000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>569000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>596700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2007400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1954000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1966400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1965000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1967600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2004900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1927800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1940500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>993000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>970600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>967000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>970000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>975900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>982500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>989000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>998500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1005000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1010100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>959900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>963100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>976300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>236100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>571600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>574400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>591800</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>579300</v>
       </c>
       <c r="AC49" s="3">
         <v>579300</v>
       </c>
       <c r="AD49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="AE49" s="3">
         <v>573900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>577100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4152,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4241,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>168800</v>
+      </c>
+      <c r="E52" s="3">
         <v>168100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>166200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>221500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>182100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>160800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>155400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>176400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>159700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>140600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>151100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>151000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>115800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>121600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>131000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>159200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>680700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>721200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>790900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>879400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>267700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>292300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>302600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>321900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>344000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>432600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>352300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4419,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6100900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6290100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6288600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6321300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6124900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6166500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6093000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5425000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5180600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4138500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3943200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3770600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3690800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3739100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3904600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3564400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3654400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4040800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4334900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4291500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4222000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3436700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3404600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3358200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3399200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3383700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3273900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3284700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3241200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4541,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4574,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>493400</v>
+      </c>
+      <c r="E57" s="3">
         <v>549400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>594000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>662600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>631600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>644000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>660000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>693500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>589800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>588200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>532400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>457600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>392900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>328300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>366800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>393500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>347600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>412900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>420600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>458200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>415200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>374600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>419700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>420500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>397300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>393800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>406800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>378200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>364000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>455300</v>
+      </c>
+      <c r="E58" s="3">
         <v>88300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>89000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>84900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>37400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>225300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>425700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>41300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>41300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>338800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>710500</v>
+      </c>
+      <c r="E59" s="3">
         <v>756300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>754800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>738300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>662800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>665900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>711300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>623300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>619600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>552800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>578500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>508300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>501000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>493700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>509600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>507900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>562500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>767400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>757100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>730600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>735900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>651600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>665200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>578600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>586200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>543300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>581100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>549500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1659200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1394000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1438600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1489900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1379300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1347700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1328200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1442200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1256300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1251300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1129000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1079200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>949600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1054600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1286200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>944400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>904000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1015700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1205700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1256600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1484600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1115200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1076400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1035100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>980100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>985800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>956500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>964900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>917700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1975700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2422000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2420500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2420000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2419100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2499000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2498200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1779000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1787700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>832000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>908300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1013200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1060400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1069000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1068000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1083000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1240100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1245600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1179500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>891000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>429000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>428900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>431800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>437600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>438200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>435400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>433800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>448000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>380200</v>
+      </c>
+      <c r="E62" s="3">
         <v>372700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>367000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>369100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>325500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>315200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>286700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>289600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>286900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>285700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>270700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>273100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>269800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>259700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>245700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>251100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>249200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>247700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>356700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>272800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>288300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>391500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>418500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>596000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>411400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>411900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>408400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>448400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>440800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5197,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5286,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5375,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4015100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4188700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4226100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4279000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4123900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4161900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4113100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3510800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3330900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2369000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2260600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2232600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2374700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2263500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2236200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2503500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2808000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2708900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2663900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1935700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1923800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1875300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1829100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1835900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1800300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1844600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1806500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5497,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5586,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5675,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5764,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5853,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>3563400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3478700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3372300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3288500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3173000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3036200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2866300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2720100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2644500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2527200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2374000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2225700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2151700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2032800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1981100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1931300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1883500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2140500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2081100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2135700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2110500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2056900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1994400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1966800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2100200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2035900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1931100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1881000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1878000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6031,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6120,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6209,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2085800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2101400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2062500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2042300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2001000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2004600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1979900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1914200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1849700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1769500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1642600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1510000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1458200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1364400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1303700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1300900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1418200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1537300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1526900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1582600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1558100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1501000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1480800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1482900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1570100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1547800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1473600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1440100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1434700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6387,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E81" s="3">
         <v>134700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>112300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>141700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>163800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>197300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>174200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>101500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>169300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>95100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>137900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>70700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>67100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-239300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>77500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-36300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>70000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>79000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>72900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-157800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>79000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>119400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>64900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>17700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>85400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6603,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E83" s="3">
         <v>67400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>64700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>61800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>44800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>27800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>27600</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>28000</v>
       </c>
       <c r="AB83" s="3">
         <v>28000</v>
       </c>
       <c r="AC83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>27200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>26900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6781,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6870,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6959,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7048,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7137,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E89" s="3">
         <v>267900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>274700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>164500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>288800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-141900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>109400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>123200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>333100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>157400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>424300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>295700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-79100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>217900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>77000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>218700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-79400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>103000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>33100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>268000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-67100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>145500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>83300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>258100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-86600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>145400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>71800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7259,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-93500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-89000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-102800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-95600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-86900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-88100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-80100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-47200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-35900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-45500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-51300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-117400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-102600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-83800</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7437,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7526,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-94600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-98500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-220500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-92200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1175800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-102500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-123300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>374000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-76600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-934600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-54100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-57000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-58300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-41300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-22300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-106600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-84300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7648,97 +7881,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-26200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-28000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-25900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-25800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-19000</v>
       </c>
       <c r="P96" s="3">
         <v>-19000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-19200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18200</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-16500</v>
       </c>
       <c r="X96" s="3">
         <v>-16500</v>
       </c>
       <c r="Y96" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="Z96" s="3">
         <v>-16600</v>
       </c>
       <c r="AA96" s="3">
-        <v>-14600</v>
+        <v>-16600</v>
       </c>
       <c r="AB96" s="3">
         <v>-14600</v>
       </c>
       <c r="AC96" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-14800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-14700</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-13500</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7826,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7915,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8004,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-198900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-103100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-112600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-165500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-170200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>559100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>880100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-139200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-56500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-170900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-288100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-228000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>325200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-211600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-330700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-96700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>38200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-33500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>768200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-54200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-75600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-54900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-43200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-45800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-40200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>3000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-5500</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-146500</v>
+      </c>
+      <c r="E102" s="3">
         <v>89600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-209600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>139400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-109500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-113700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>325600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1130600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>897400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>118300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-129200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>106400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>182600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-45900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-289900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>497100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-132800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-133400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>151900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-164800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>56400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-46100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>163400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-149100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-55600</v>
       </c>
     </row>
